--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Dwen\Dropbox\SouthSeas Upgrade 2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ssftvstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550"/>
   </bookViews>
   <sheets>
-    <sheet name="1XXX Ref" sheetId="1" r:id="rId1"/>
-    <sheet name="2XXX HD-SDI" sheetId="2" r:id="rId2"/>
+    <sheet name="1XXX HD-SDI" sheetId="1" r:id="rId1"/>
+    <sheet name="2XXX Ref" sheetId="2" r:id="rId2"/>
+    <sheet name="3XXX Network" sheetId="3" r:id="rId3"/>
+    <sheet name="4XXX Audio" sheetId="4" r:id="rId4"/>
+    <sheet name="5XXX Coms" sheetId="5" r:id="rId5"/>
+    <sheet name="6XXX Timcode" sheetId="6" r:id="rId6"/>
+    <sheet name="7XXX KVM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
   <si>
     <t>Cable#</t>
   </si>
@@ -433,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,66 +676,6 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>1050</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -739,11 +684,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,64 +922,1234 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>2050</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>3038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>4038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>5038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>6038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>7021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>7022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>7037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>7038</v>
       </c>
     </row>
   </sheetData>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ssftvstudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Dwen\Dropbox\SouthSeas Upgrade 2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550"/>
   </bookViews>
   <sheets>
-    <sheet name="1XXX HD-SDI" sheetId="1" r:id="rId1"/>
+    <sheet name="1XXX Ref" sheetId="1" r:id="rId1"/>
     <sheet name="2XXX Ref" sheetId="2" r:id="rId2"/>
     <sheet name="3XXX Network" sheetId="3" r:id="rId3"/>
     <sheet name="4XXX Audio" sheetId="4" r:id="rId4"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Cable#</t>
   </si>
@@ -51,6 +51,72 @@
   </si>
   <si>
     <t>I/P</t>
+  </si>
+  <si>
+    <t>SPG 01</t>
+  </si>
+  <si>
+    <t>BNC</t>
+  </si>
+  <si>
+    <t>O/P 01</t>
+  </si>
+  <si>
+    <t>O/P 02</t>
+  </si>
+  <si>
+    <t>O/P 03</t>
+  </si>
+  <si>
+    <t>O/P 04</t>
+  </si>
+  <si>
+    <t>O/P 05</t>
+  </si>
+  <si>
+    <t>O/P 06</t>
+  </si>
+  <si>
+    <t>O/P 07</t>
+  </si>
+  <si>
+    <t>O/P 08</t>
+  </si>
+  <si>
+    <t>O/P 10</t>
+  </si>
+  <si>
+    <t>Frame 01</t>
+  </si>
+  <si>
+    <t>Ref I/P</t>
+  </si>
+  <si>
+    <t>RTR 01</t>
+  </si>
+  <si>
+    <t>VMX 01</t>
+  </si>
+  <si>
+    <t>VTR 01</t>
+  </si>
+  <si>
+    <t>VTR 02</t>
+  </si>
+  <si>
+    <t>VTR 04</t>
+  </si>
+  <si>
+    <t>VTR 03</t>
+  </si>
+  <si>
+    <t>CG 01</t>
+  </si>
+  <si>
+    <t>JF X</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -438,24 +504,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,199 +547,216 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>1038</v>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -691,17 +774,17 @@
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,197 +810,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2038</v>
       </c>
@@ -937,17 +1020,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -973,197 +1056,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3038</v>
       </c>
@@ -1183,17 +1266,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1219,197 +1302,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4038</v>
       </c>
@@ -1429,17 +1512,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1465,197 +1548,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5038</v>
       </c>
@@ -1675,17 +1758,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,197 +1794,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>6031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6038</v>
       </c>
@@ -1921,17 +2004,17 @@
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1957,197 +2040,197 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7006</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>7026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>7027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>7037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7038</v>
       </c>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1XXX Ref" sheetId="1" r:id="rId1"/>
+    <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
     <sheet name="2XXX Ref" sheetId="2" r:id="rId2"/>
-    <sheet name="3XXX Network" sheetId="3" r:id="rId3"/>
+    <sheet name="3-CVBS" sheetId="3" r:id="rId3"/>
     <sheet name="4XXX Audio" sheetId="4" r:id="rId4"/>
     <sheet name="5XXX Coms" sheetId="5" r:id="rId5"/>
     <sheet name="6XXX Timcode" sheetId="6" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
   <si>
     <t>Cable#</t>
   </si>
@@ -117,13 +117,34 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>Prompt 01</t>
+  </si>
+  <si>
+    <t>O/P CVBS</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>VDA 02</t>
+  </si>
+  <si>
+    <t>UpCon 01</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>CVBS I/P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +156,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -224,6 +258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,9 +542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,13 +785,13 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1013,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,195 +1096,115 @@
       <c r="A2" s="1">
         <v>3000</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3001</v>
       </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3002</v>
       </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>3038</v>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
-    <sheet name="2XXX Ref" sheetId="2" r:id="rId2"/>
+    <sheet name="2-HD-SDI" sheetId="2" r:id="rId2"/>
     <sheet name="3-CVBS" sheetId="3" r:id="rId3"/>
     <sheet name="4XXX Audio" sheetId="4" r:id="rId4"/>
     <sheet name="5XXX Coms" sheetId="5" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="157">
   <si>
     <t>Cable#</t>
   </si>
@@ -138,13 +138,376 @@
   </si>
   <si>
     <t>CVBS I/P</t>
+  </si>
+  <si>
+    <t>Cam 01</t>
+  </si>
+  <si>
+    <t>SDI O/P</t>
+  </si>
+  <si>
+    <t>Cam 02</t>
+  </si>
+  <si>
+    <t>Cam 03</t>
+  </si>
+  <si>
+    <t>Cam 04</t>
+  </si>
+  <si>
+    <t>Cam 05</t>
+  </si>
+  <si>
+    <t>JF XX</t>
+  </si>
+  <si>
+    <t>Mon O/P</t>
+  </si>
+  <si>
+    <t>Key O/P</t>
+  </si>
+  <si>
+    <t>CG 02</t>
+  </si>
+  <si>
+    <t>Fill O/P</t>
+  </si>
+  <si>
+    <t>UpCon 01 (Prompt)</t>
+  </si>
+  <si>
+    <t>O/P 1</t>
+  </si>
+  <si>
+    <t>Embedder 01</t>
+  </si>
+  <si>
+    <t>Embedder 02</t>
+  </si>
+  <si>
+    <t>O/P 2</t>
+  </si>
+  <si>
+    <t>PGM SD</t>
+  </si>
+  <si>
+    <t>M/E 1 PVW</t>
+  </si>
+  <si>
+    <t>M/V 1 O/P</t>
+  </si>
+  <si>
+    <t>M/V 2 O/P</t>
+  </si>
+  <si>
+    <t>Aux 01</t>
+  </si>
+  <si>
+    <t>Aux 02</t>
+  </si>
+  <si>
+    <t>Aux 03</t>
+  </si>
+  <si>
+    <t>Aux 04</t>
+  </si>
+  <si>
+    <t>Aux 05</t>
+  </si>
+  <si>
+    <t>Aux 06</t>
+  </si>
+  <si>
+    <t>O/P 3</t>
+  </si>
+  <si>
+    <t>O/P 4</t>
+  </si>
+  <si>
+    <t>O/P 5</t>
+  </si>
+  <si>
+    <t>O/P 6</t>
+  </si>
+  <si>
+    <t>O/P 7</t>
+  </si>
+  <si>
+    <t>O/P 8</t>
+  </si>
+  <si>
+    <t>O/P 9</t>
+  </si>
+  <si>
+    <t>O/P 11</t>
+  </si>
+  <si>
+    <t>O/P 12</t>
+  </si>
+  <si>
+    <t>O/P 13</t>
+  </si>
+  <si>
+    <t>O/P 14</t>
+  </si>
+  <si>
+    <t>O/P 15</t>
+  </si>
+  <si>
+    <t>O/P 16</t>
+  </si>
+  <si>
+    <t>O/P 17</t>
+  </si>
+  <si>
+    <t>O/P 18</t>
+  </si>
+  <si>
+    <t>O/P 19</t>
+  </si>
+  <si>
+    <t>O/P 20</t>
+  </si>
+  <si>
+    <t>O/P 21</t>
+  </si>
+  <si>
+    <t>O/P 22</t>
+  </si>
+  <si>
+    <t>O/P 23</t>
+  </si>
+  <si>
+    <t>O/P 24</t>
+  </si>
+  <si>
+    <t>O/P 25</t>
+  </si>
+  <si>
+    <t>O/P 26</t>
+  </si>
+  <si>
+    <t>O/P 27</t>
+  </si>
+  <si>
+    <t>O/P 28</t>
+  </si>
+  <si>
+    <t>O/P 29</t>
+  </si>
+  <si>
+    <t>O/P 30</t>
+  </si>
+  <si>
+    <t>O/P 31</t>
+  </si>
+  <si>
+    <t>O/P 32</t>
+  </si>
+  <si>
+    <t>O/P 33</t>
+  </si>
+  <si>
+    <t>O/P 34</t>
+  </si>
+  <si>
+    <t>O/P 35</t>
+  </si>
+  <si>
+    <t>O/P 36</t>
+  </si>
+  <si>
+    <t>O/P 37</t>
+  </si>
+  <si>
+    <t>O/P 38</t>
+  </si>
+  <si>
+    <t>O/P 39</t>
+  </si>
+  <si>
+    <t>O/P 40</t>
+  </si>
+  <si>
+    <t>I/P 1</t>
+  </si>
+  <si>
+    <t>I/P 2</t>
+  </si>
+  <si>
+    <t>I/P 3</t>
+  </si>
+  <si>
+    <t>I/P 4</t>
+  </si>
+  <si>
+    <t>I/P 5</t>
+  </si>
+  <si>
+    <t>I/P 6</t>
+  </si>
+  <si>
+    <t>I/P 7</t>
+  </si>
+  <si>
+    <t>I/P 8</t>
+  </si>
+  <si>
+    <t>I/P 9</t>
+  </si>
+  <si>
+    <t>I/P 10</t>
+  </si>
+  <si>
+    <t>I/P 11</t>
+  </si>
+  <si>
+    <t>I/P 12</t>
+  </si>
+  <si>
+    <t>I/P 13</t>
+  </si>
+  <si>
+    <t>I/P 14</t>
+  </si>
+  <si>
+    <t>I/P 15</t>
+  </si>
+  <si>
+    <t>I/P 16</t>
+  </si>
+  <si>
+    <t>I/P 17</t>
+  </si>
+  <si>
+    <t>I/P 18</t>
+  </si>
+  <si>
+    <t>I/P 19</t>
+  </si>
+  <si>
+    <t>I/P 20</t>
+  </si>
+  <si>
+    <t>I/P 21</t>
+  </si>
+  <si>
+    <t>I/P 22</t>
+  </si>
+  <si>
+    <t>I/P 23</t>
+  </si>
+  <si>
+    <t>I/P 24</t>
+  </si>
+  <si>
+    <t>I/P 25</t>
+  </si>
+  <si>
+    <t>I/P 26</t>
+  </si>
+  <si>
+    <t>I/P 27</t>
+  </si>
+  <si>
+    <t>I/P 28</t>
+  </si>
+  <si>
+    <t>I/P 29</t>
+  </si>
+  <si>
+    <t>I/P 30</t>
+  </si>
+  <si>
+    <t>I/P 31</t>
+  </si>
+  <si>
+    <t>I/P 32</t>
+  </si>
+  <si>
+    <t>I/P 33</t>
+  </si>
+  <si>
+    <t>I/P 34</t>
+  </si>
+  <si>
+    <t>I/P 35</t>
+  </si>
+  <si>
+    <t>I/P 36</t>
+  </si>
+  <si>
+    <t>I/P 37</t>
+  </si>
+  <si>
+    <t>I/P 38</t>
+  </si>
+  <si>
+    <t>I/P 39</t>
+  </si>
+  <si>
+    <t>I/P 40</t>
+  </si>
+  <si>
+    <t>CCU Mon 01</t>
+  </si>
+  <si>
+    <t>CCU Mon 02/03</t>
+  </si>
+  <si>
+    <t>CCU Mon 04/05</t>
+  </si>
+  <si>
+    <t>CCU Mon 06/07</t>
+  </si>
+  <si>
+    <t>VT Mon 01/02</t>
+  </si>
+  <si>
+    <t>VT Mon 03/04</t>
+  </si>
+  <si>
+    <t>VT Audio Mon</t>
+  </si>
+  <si>
+    <t>ACR Mon 01</t>
+  </si>
+  <si>
+    <t>ACR Mon 02/03</t>
+  </si>
+  <si>
+    <t>DeEmbedder 01</t>
+  </si>
+  <si>
+    <t>DeEmbedder 02</t>
+  </si>
+  <si>
+    <t>SDI I/P</t>
+  </si>
+  <si>
+    <t>SDI A I/P</t>
+  </si>
+  <si>
+    <t>SDI A Loop</t>
+  </si>
+  <si>
+    <t>PGM HD</t>
+  </si>
+  <si>
+    <t>VDA 01</t>
+  </si>
+  <si>
+    <t>PGM 4K</t>
+  </si>
+  <si>
+    <t>Ret I/P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +532,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -260,6 +630,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,11 +1181,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,197 +1226,2242 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2000</v>
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2001</v>
+        <v>2002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2002</v>
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2003</v>
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2004</v>
+      <c r="A6" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2005</v>
+        <v>2006</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2006</v>
+        <v>2007</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2010</v>
+        <v>2011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2011</v>
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
         <v>2013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2026</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2027</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2028</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2038</v>
+        <v>2039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>2051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>2053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2058</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>2101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>139</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>2102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" t="s">
+        <v>100</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>2103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>141</v>
+      </c>
+      <c r="G104" t="s">
+        <v>99</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>2104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>141</v>
+      </c>
+      <c r="G105" t="s">
+        <v>100</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>2105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>142</v>
+      </c>
+      <c r="G106" t="s">
+        <v>99</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>2106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>142</v>
+      </c>
+      <c r="G107" t="s">
+        <v>100</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>2107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>99</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>2108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" t="s">
+        <v>100</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>2109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" t="s">
+        <v>99</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>2110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" t="s">
+        <v>100</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>2111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>145</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>2112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>146</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>2113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>147</v>
+      </c>
+      <c r="G114" t="s">
+        <v>99</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>2114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>147</v>
+      </c>
+      <c r="G115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>2115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>148</v>
+      </c>
+      <c r="G116" t="s">
+        <v>150</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>2116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>149</v>
+      </c>
+      <c r="G117" t="s">
+        <v>150</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>2117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>151</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>2118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>151</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>2119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>150</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>2120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>78</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>2121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>2122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>2123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>2124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>99</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>2125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>100</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>2126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>101</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>2127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>85</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>102</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>2128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>2129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>104</v>
+      </c>
+      <c r="H130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>2130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>2131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>89</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>106</v>
+      </c>
+      <c r="H132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>2132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>107</v>
+      </c>
+      <c r="H133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>2133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>108</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>2134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>109</v>
+      </c>
+      <c r="H135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>2135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>110</v>
+      </c>
+      <c r="H136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>2136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>111</v>
+      </c>
+      <c r="H137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>2137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>112</v>
+      </c>
+      <c r="H138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>2138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>113</v>
+      </c>
+      <c r="H139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>2139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>114</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>2140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>115</v>
+      </c>
+      <c r="H141" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +3474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="247">
   <si>
     <t>Cable#</t>
   </si>
@@ -501,6 +501,276 @@
   </si>
   <si>
     <t>Ret I/P</t>
+  </si>
+  <si>
+    <t>Audio Desk</t>
+  </si>
+  <si>
+    <t>XLR-M</t>
+  </si>
+  <si>
+    <t>Studio Floor</t>
+  </si>
+  <si>
+    <t>XLR-F-JF</t>
+  </si>
+  <si>
+    <t>W/L 01</t>
+  </si>
+  <si>
+    <t>W/L 02</t>
+  </si>
+  <si>
+    <t>W/L 03</t>
+  </si>
+  <si>
+    <t>W/L 04</t>
+  </si>
+  <si>
+    <t>W/L 05</t>
+  </si>
+  <si>
+    <t>W/L 06</t>
+  </si>
+  <si>
+    <t>W/L 07</t>
+  </si>
+  <si>
+    <t>W/L 08</t>
+  </si>
+  <si>
+    <t>W/L 09</t>
+  </si>
+  <si>
+    <t>W/L 10</t>
+  </si>
+  <si>
+    <t>W/L 11</t>
+  </si>
+  <si>
+    <t>W/L 12</t>
+  </si>
+  <si>
+    <t>W/L 13</t>
+  </si>
+  <si>
+    <t>W/L 14</t>
+  </si>
+  <si>
+    <t>W/L 15</t>
+  </si>
+  <si>
+    <t>W/L 16</t>
+  </si>
+  <si>
+    <t>W/L 17</t>
+  </si>
+  <si>
+    <t>W/L 18</t>
+  </si>
+  <si>
+    <t>W/L 19</t>
+  </si>
+  <si>
+    <t>W/L 20</t>
+  </si>
+  <si>
+    <t>W/L 21</t>
+  </si>
+  <si>
+    <t>W/L 22</t>
+  </si>
+  <si>
+    <t>W/L 23</t>
+  </si>
+  <si>
+    <t>W/L 24</t>
+  </si>
+  <si>
+    <t>Ch 1 O/P</t>
+  </si>
+  <si>
+    <t>Ch 2 O/P</t>
+  </si>
+  <si>
+    <t>Ch 3 O/P</t>
+  </si>
+  <si>
+    <t>Ch 4 O/P</t>
+  </si>
+  <si>
+    <t>Bal 6.3</t>
+  </si>
+  <si>
+    <t>Aux 1 I/P</t>
+  </si>
+  <si>
+    <t>Aux 2 I/P</t>
+  </si>
+  <si>
+    <t>Aux 3 I/P</t>
+  </si>
+  <si>
+    <t>Aux 4 I/P</t>
+  </si>
+  <si>
+    <t>Aux 5 I/P</t>
+  </si>
+  <si>
+    <t>Aux 6 I/P</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>PGM L O/P</t>
+  </si>
+  <si>
+    <t>XLR-F</t>
+  </si>
+  <si>
+    <t>PGM R O/P</t>
+  </si>
+  <si>
+    <t>ACR PC</t>
+  </si>
+  <si>
+    <t>L O/P</t>
+  </si>
+  <si>
+    <t>R O/P</t>
+  </si>
+  <si>
+    <t>Stereo 3.5</t>
+  </si>
+  <si>
+    <t>1 O/P</t>
+  </si>
+  <si>
+    <t>2 O/P</t>
+  </si>
+  <si>
+    <t>3 O/P</t>
+  </si>
+  <si>
+    <t>4 O/P</t>
+  </si>
+  <si>
+    <t>5 O/P</t>
+  </si>
+  <si>
+    <t>6 O/P</t>
+  </si>
+  <si>
+    <t>7 O/P</t>
+  </si>
+  <si>
+    <t>8 O/P</t>
+  </si>
+  <si>
+    <t>9 O/P</t>
+  </si>
+  <si>
+    <t>10 O/P</t>
+  </si>
+  <si>
+    <t>11 O/P</t>
+  </si>
+  <si>
+    <t>12 O/P</t>
+  </si>
+  <si>
+    <t>13 O/P</t>
+  </si>
+  <si>
+    <t>14 O/P</t>
+  </si>
+  <si>
+    <t>15 O/P</t>
+  </si>
+  <si>
+    <t>16 O/P</t>
+  </si>
+  <si>
+    <t>Emedder 01</t>
+  </si>
+  <si>
+    <t>Ch 1 I/P</t>
+  </si>
+  <si>
+    <t>Ch 2 I/P</t>
+  </si>
+  <si>
+    <t>Ch 3 I/P</t>
+  </si>
+  <si>
+    <t>Ch 4 IP</t>
+  </si>
+  <si>
+    <t>Emedder 02</t>
+  </si>
+  <si>
+    <t>XLR-M-JF</t>
+  </si>
+  <si>
+    <t>W/L 25</t>
+  </si>
+  <si>
+    <t>W/L 26</t>
+  </si>
+  <si>
+    <t>PCR Speakers</t>
+  </si>
+  <si>
+    <t>L I/P</t>
+  </si>
+  <si>
+    <t>R I/P</t>
+  </si>
+  <si>
+    <t>Aux 1 O/P</t>
+  </si>
+  <si>
+    <t>Aux 2 O/P</t>
+  </si>
+  <si>
+    <t>Aux 3 O/P</t>
+  </si>
+  <si>
+    <t>Aux 4 O/P</t>
+  </si>
+  <si>
+    <t>Aux 5 O/P</t>
+  </si>
+  <si>
+    <t>Aux 6 O/P</t>
+  </si>
+  <si>
+    <t>Bal 6.3 / RCA</t>
+  </si>
+  <si>
+    <t>Dir Panel</t>
+  </si>
+  <si>
+    <t>PGM  I/P</t>
+  </si>
+  <si>
+    <t>Floor Mon Amp</t>
+  </si>
+  <si>
+    <t>Ctrl O/P L</t>
+  </si>
+  <si>
+    <t>Ctrl O/P R</t>
+  </si>
+  <si>
+    <t>ACR Speakers</t>
+  </si>
+  <si>
+    <t>Floor Mon</t>
+  </si>
+  <si>
+    <t>Announce O/P</t>
   </si>
 </sst>
 </file>
@@ -617,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,6 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
@@ -3638,11 +3909,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,197 +3954,1472 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4000</v>
+        <v>4001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4001</v>
+        <v>4002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4002</v>
+        <v>4003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4003</v>
+        <v>4004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4004</v>
+        <v>4005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4005</v>
+        <v>4006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4006</v>
+        <v>4007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4007</v>
+        <v>4008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4008</v>
+        <v>4009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4009</v>
+        <v>4010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4010</v>
+        <v>4011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4011</v>
+        <v>4012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4012</v>
+        <v>4013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4013</v>
+        <v>4014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4035</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4036</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4038</v>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>4041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>4044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" t="s">
+        <v>224</v>
+      </c>
+      <c r="H45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>4046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>4047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>4048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>4049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>4050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>4051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>4052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>4053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>4054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>4055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>4056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>4057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" t="s">
+        <v>239</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>4058</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>4059</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>4060</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>4061</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>4062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>4063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" t="s">
+        <v>230</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>4064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" t="s">
+        <v>231</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>4065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
+        <v>245</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>4066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
     <sheet name="2-HD-SDI" sheetId="2" r:id="rId2"/>
     <sheet name="3-CVBS" sheetId="3" r:id="rId3"/>
-    <sheet name="4XXX Audio" sheetId="4" r:id="rId4"/>
-    <sheet name="5XXX Coms" sheetId="5" r:id="rId5"/>
+    <sheet name="4-Audio" sheetId="4" r:id="rId4"/>
+    <sheet name="5-Coms" sheetId="5" r:id="rId5"/>
     <sheet name="6XXX Timcode" sheetId="6" r:id="rId6"/>
     <sheet name="7XXX KVM" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="258">
   <si>
     <t>Cable#</t>
   </si>
@@ -771,6 +771,39 @@
   </si>
   <si>
     <t>Announce O/P</t>
+  </si>
+  <si>
+    <t>JF ??</t>
+  </si>
+  <si>
+    <t>5001A</t>
+  </si>
+  <si>
+    <t>5001C</t>
+  </si>
+  <si>
+    <t>Coms TX/RX</t>
+  </si>
+  <si>
+    <t>5001D</t>
+  </si>
+  <si>
+    <t>CCU/VT Panel</t>
+  </si>
+  <si>
+    <t>Ch 1 I/O</t>
+  </si>
+  <si>
+    <t>Ch 2 I/O</t>
+  </si>
+  <si>
+    <t>Ch 3 I/O</t>
+  </si>
+  <si>
+    <t>Ch 4 I/O</t>
+  </si>
+  <si>
+    <t>ACR Panel</t>
   </si>
 </sst>
 </file>
@@ -887,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -909,6 +942,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3911,7 +3947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F67" sqref="F67:H67"/>
     </sheetView>
@@ -5430,11 +5466,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,198 +5510,164 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5000</v>
+      <c r="A2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>5001</v>
+      <c r="A3" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>5002</v>
+      <c r="A4" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5003</v>
+      <c r="A5" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5004</v>
+        <v>5002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5005</v>
+        <v>5003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>5011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>5014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>5016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>5017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>5018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>5019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>5022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>5024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>5025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>5026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>5027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>5028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>5029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>5030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>5032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>5033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>5036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>5037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>5038</v>
+        <v>5004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="3-CVBS" sheetId="3" r:id="rId3"/>
     <sheet name="4-Audio" sheetId="4" r:id="rId4"/>
     <sheet name="5-Coms" sheetId="5" r:id="rId5"/>
-    <sheet name="6XXX Timcode" sheetId="6" r:id="rId6"/>
+    <sheet name="6-Timecode" sheetId="6" r:id="rId6"/>
     <sheet name="7XXX KVM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="263">
   <si>
     <t>Cable#</t>
   </si>
@@ -804,6 +804,21 @@
   </si>
   <si>
     <t>ACR Panel</t>
+  </si>
+  <si>
+    <t>TCG</t>
+  </si>
+  <si>
+    <t>LTC O/P</t>
+  </si>
+  <si>
+    <t>ADA 01</t>
+  </si>
+  <si>
+    <t>Loop O/P</t>
+  </si>
+  <si>
+    <t>TC I/P</t>
   </si>
 </sst>
 </file>
@@ -5468,7 +5483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
@@ -5680,9 +5695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A40"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5725,50 +5740,194 @@
       <c r="A2" s="1">
         <v>6000</v>
       </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6001</v>
       </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6002</v>
       </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6003</v>
       </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6004</v>
       </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6005</v>
       </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6006</v>
       </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6007</v>
       </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6008</v>
       </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="4-Audio" sheetId="4" r:id="rId4"/>
     <sheet name="5-Coms" sheetId="5" r:id="rId5"/>
     <sheet name="6-Timecode" sheetId="6" r:id="rId6"/>
-    <sheet name="7XXX KVM" sheetId="7" r:id="rId7"/>
+    <sheet name="7-Network" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="299">
   <si>
     <t>Cable#</t>
   </si>
@@ -819,6 +819,114 @@
   </si>
   <si>
     <t>TC I/P</t>
+  </si>
+  <si>
+    <t>Switch 01</t>
+  </si>
+  <si>
+    <t>Switch 02</t>
+  </si>
+  <si>
+    <t>Switch 03</t>
+  </si>
+  <si>
+    <t>Switch 04</t>
+  </si>
+  <si>
+    <t>RJ-45</t>
+  </si>
+  <si>
+    <t>I/O 1</t>
+  </si>
+  <si>
+    <t>I/O 2</t>
+  </si>
+  <si>
+    <t>I/O 3</t>
+  </si>
+  <si>
+    <t>I/O 4</t>
+  </si>
+  <si>
+    <t>I/O 5</t>
+  </si>
+  <si>
+    <t>I/O 6</t>
+  </si>
+  <si>
+    <t>I/O 7</t>
+  </si>
+  <si>
+    <t>I/O 8</t>
+  </si>
+  <si>
+    <t>I/O 9</t>
+  </si>
+  <si>
+    <t>I/O 10</t>
+  </si>
+  <si>
+    <t>I/O 11</t>
+  </si>
+  <si>
+    <t>I/O 12</t>
+  </si>
+  <si>
+    <t>I/O 13</t>
+  </si>
+  <si>
+    <t>I/O 14</t>
+  </si>
+  <si>
+    <t>I/O 15</t>
+  </si>
+  <si>
+    <t>I/O 16</t>
+  </si>
+  <si>
+    <t>I/O 17</t>
+  </si>
+  <si>
+    <t>I/O 18</t>
+  </si>
+  <si>
+    <t>I/O 19</t>
+  </si>
+  <si>
+    <t>I/O 20</t>
+  </si>
+  <si>
+    <t>I/O 21</t>
+  </si>
+  <si>
+    <t>I/O 22</t>
+  </si>
+  <si>
+    <t>I/O 23</t>
+  </si>
+  <si>
+    <t>I/O 24</t>
+  </si>
+  <si>
+    <t>LAN I/O</t>
+  </si>
+  <si>
+    <t>VMX Tub</t>
+  </si>
+  <si>
+    <t>IT Switch</t>
+  </si>
+  <si>
+    <t>CCU PC</t>
+  </si>
+  <si>
+    <t>RTR Panel 01</t>
+  </si>
+  <si>
+    <t>Audio Mixer 01</t>
+  </si>
+  <si>
+    <t>RTR Panel 02</t>
   </si>
 </sst>
 </file>
@@ -5695,7 +5803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -6083,11 +6191,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6128,197 +6236,884 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7000</v>
+        <v>7101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7001</v>
+        <v>7102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7002</v>
+        <v>7103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7003</v>
+        <v>7104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7004</v>
+        <v>7105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7005</v>
+        <v>7106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7006</v>
+        <v>7107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7007</v>
+        <v>7108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7008</v>
+        <v>7109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7009</v>
+        <v>7110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7010</v>
+        <v>7111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7011</v>
+        <v>7112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7012</v>
+        <v>7113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7013</v>
+        <v>7114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>7017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>7022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>7024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>7026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>7028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>7030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7206</v>
+      </c>
+      <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>7032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7207</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>292</v>
+      </c>
+      <c r="H35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7302</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7303</v>
+      </c>
+      <c r="B37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7304</v>
+      </c>
+      <c r="B38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>292</v>
+      </c>
+      <c r="H38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7038</v>
+        <v>7306</v>
+      </c>
+      <c r="B40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D40" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>292</v>
+      </c>
+      <c r="H40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>7307</v>
+      </c>
+      <c r="B41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>7401</v>
+      </c>
+      <c r="B43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7402</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7403</v>
+      </c>
+      <c r="B45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>7404</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>7405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" t="s">
+        <v>292</v>
+      </c>
+      <c r="H47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>7406</v>
+      </c>
+      <c r="B48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>7407</v>
+      </c>
+      <c r="B49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="5-Coms" sheetId="5" r:id="rId5"/>
     <sheet name="6-Timecode" sheetId="6" r:id="rId6"/>
     <sheet name="7-Network" sheetId="7" r:id="rId7"/>
+    <sheet name="8-KVM" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="310">
   <si>
     <t>Cable#</t>
   </si>
@@ -927,6 +928,39 @@
   </si>
   <si>
     <t>RTR Panel 02</t>
+  </si>
+  <si>
+    <t>DVI O/P</t>
+  </si>
+  <si>
+    <t>USB I/O</t>
+  </si>
+  <si>
+    <t>DVI-M</t>
+  </si>
+  <si>
+    <t>USB-B</t>
+  </si>
+  <si>
+    <t>USB-A</t>
+  </si>
+  <si>
+    <t>CG 01 Display</t>
+  </si>
+  <si>
+    <t>DVI I/P</t>
+  </si>
+  <si>
+    <t>USB I/P</t>
+  </si>
+  <si>
+    <t>CG 01 Hub</t>
+  </si>
+  <si>
+    <t>Prompt 01 Display</t>
+  </si>
+  <si>
+    <t>Prompt 01 Hub</t>
   </si>
 </sst>
 </file>
@@ -6193,7 +6227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
@@ -7120,4 +7154,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>8004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="6-Timecode" sheetId="6" r:id="rId6"/>
     <sheet name="7-Network" sheetId="7" r:id="rId7"/>
     <sheet name="8-KVM" sheetId="8" r:id="rId8"/>
+    <sheet name="9-HDMI" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="314">
   <si>
     <t>Cable#</t>
   </si>
@@ -961,6 +962,18 @@
   </si>
   <si>
     <t>Prompt 01 Hub</t>
+  </si>
+  <si>
+    <t>VMX 02</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+  </si>
+  <si>
+    <t>PCR Mon 01</t>
+  </si>
+  <si>
+    <t>PCR Mon 02</t>
   </si>
 </sst>
 </file>
@@ -7160,7 +7173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -7300,4 +7313,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>9001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="358">
   <si>
     <t>Cable#</t>
   </si>
@@ -115,12 +115,6 @@
     <t>CG 01</t>
   </si>
   <si>
-    <t>JF X</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
     <t>Prompt 01</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>UpCon 01</t>
   </si>
   <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>CVBS I/P</t>
   </si>
   <si>
@@ -775,9 +766,6 @@
     <t>Announce O/P</t>
   </si>
   <si>
-    <t>JF ??</t>
-  </si>
-  <si>
     <t>5001A</t>
   </si>
   <si>
@@ -974,6 +962,150 @@
   </si>
   <si>
     <t>PCR Mon 02</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>JF B01</t>
+  </si>
+  <si>
+    <t>JF B02</t>
+  </si>
+  <si>
+    <t>JF B03</t>
+  </si>
+  <si>
+    <t>JF B04</t>
+  </si>
+  <si>
+    <t>JF B05</t>
+  </si>
+  <si>
+    <t>JF B06</t>
+  </si>
+  <si>
+    <t>JF B07</t>
+  </si>
+  <si>
+    <t>JF B08</t>
+  </si>
+  <si>
+    <t>JF A11</t>
+  </si>
+  <si>
+    <t>JF A01</t>
+  </si>
+  <si>
+    <t>JF A02</t>
+  </si>
+  <si>
+    <t>JF A03</t>
+  </si>
+  <si>
+    <t>JF A04</t>
+  </si>
+  <si>
+    <t>JF A05</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1114,6 +1246,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,7 +1534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,13 +1775,13 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1661,8 +1796,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,22 +1841,22 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>42</v>
+      <c r="E2" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1732,22 +1867,22 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>42</v>
+      <c r="E3" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1758,22 +1893,22 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
+      <c r="E4" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1784,22 +1919,22 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
+      <c r="E5" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -1810,22 +1945,22 @@
         <v>2005</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
+      <c r="E6" s="14" t="s">
+        <v>315</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -1835,14 +1970,14 @@
       <c r="A7" s="1">
         <v>2006</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>42</v>
+      <c r="E7" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -1852,14 +1987,14 @@
       <c r="A8" s="1">
         <v>2007</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
+      <c r="E8" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1869,14 +2004,14 @@
       <c r="A9" s="1">
         <v>2008</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
+      <c r="E9" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -1890,7 +2025,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1899,7 +2034,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -1913,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1922,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -1936,7 +2071,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1945,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -1959,7 +2094,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1968,7 +2103,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -1982,7 +2117,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1991,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -2005,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>8</v>
@@ -2015,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>8</v>
@@ -2029,7 +2164,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -2038,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -2049,10 +2184,10 @@
         <v>2016</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -2061,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
@@ -2072,10 +2207,10 @@
         <v>2017</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -2084,7 +2219,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
@@ -2098,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -2112,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -2126,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
@@ -2140,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -2154,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
         <v>8</v>
@@ -2168,7 +2303,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
@@ -2182,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -2196,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
@@ -2210,7 +2345,7 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
@@ -2224,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
@@ -2238,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -2249,10 +2384,10 @@
         <v>2029</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2261,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
@@ -2272,10 +2407,10 @@
         <v>2030</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -2284,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
@@ -2298,7 +2433,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -2307,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
@@ -2321,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2330,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
@@ -2344,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2353,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
@@ -2367,7 +2502,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2376,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
@@ -2390,7 +2525,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2399,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
         <v>8</v>
@@ -2413,7 +2548,7 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2422,7 +2557,7 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
@@ -2436,7 +2571,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2445,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
@@ -2459,7 +2594,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2468,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
@@ -2482,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2491,7 +2626,7 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
@@ -2505,7 +2640,7 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2514,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
@@ -2525,19 +2660,19 @@
         <v>2041</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
@@ -2551,13 +2686,13 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -2574,13 +2709,13 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -2594,16 +2729,23 @@
         <v>2044</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>42</v>
+      <c r="E45" s="8"/>
+      <c r="F45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" t="s">
+        <v>319</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,22 +2783,22 @@
         <v>2051</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>42</v>
+      <c r="E52" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
@@ -2667,22 +2809,22 @@
         <v>2052</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>42</v>
+      <c r="E53" s="14" t="s">
+        <v>321</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H53" t="s">
         <v>8</v>
@@ -2693,22 +2835,22 @@
         <v>2053</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>42</v>
+      <c r="E54" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
@@ -2719,22 +2861,22 @@
         <v>2054</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>42</v>
+      <c r="E55" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H55" t="s">
         <v>8</v>
@@ -2745,22 +2887,22 @@
         <v>2055</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>42</v>
+      <c r="E56" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H56" t="s">
         <v>8</v>
@@ -2771,16 +2913,23 @@
         <v>2056</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>42</v>
+      <c r="E57" s="8"/>
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2788,16 +2937,23 @@
         <v>2057</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>42</v>
+      <c r="E58" s="8"/>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>326</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,16 +2961,16 @@
         <v>2058</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
         <v>6</v>
@@ -3041,13 +3197,13 @@
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -3064,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G103" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
@@ -3087,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G104" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
@@ -3110,16 +3266,16 @@
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G105" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
@@ -3133,16 +3289,16 @@
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G106" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H106" t="s">
         <v>8</v>
@@ -3156,16 +3312,16 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G107" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
@@ -3179,16 +3335,16 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H108" t="s">
         <v>8</v>
@@ -3202,16 +3358,16 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H109" t="s">
         <v>8</v>
@@ -3225,16 +3381,16 @@
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
@@ -3254,10 +3410,10 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H111" t="s">
         <v>8</v>
@@ -3271,13 +3427,13 @@
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
         <v>6</v>
@@ -3294,13 +3450,13 @@
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
         <v>6</v>
@@ -3317,16 +3473,16 @@
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H114" t="s">
         <v>8</v>
@@ -3340,16 +3496,16 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G115" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H115" t="s">
         <v>8</v>
@@ -3363,16 +3519,16 @@
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H116" t="s">
         <v>8</v>
@@ -3386,16 +3542,16 @@
         <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G117" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H117" t="s">
         <v>8</v>
@@ -3409,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3418,7 +3574,7 @@
         <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
@@ -3432,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3441,7 +3597,7 @@
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H119" t="s">
         <v>8</v>
@@ -3455,7 +3611,7 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3464,7 +3620,7 @@
         <v>25</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H120" t="s">
         <v>8</v>
@@ -3478,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3487,7 +3643,7 @@
         <v>24</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>8</v>
@@ -3501,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3510,7 +3666,7 @@
         <v>26</v>
       </c>
       <c r="G122" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
@@ -3524,13 +3680,13 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3541,13 +3697,13 @@
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3567,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H125" t="s">
         <v>8</v>
@@ -3581,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3590,7 +3746,7 @@
         <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H126" t="s">
         <v>8</v>
@@ -3604,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -3613,7 +3769,7 @@
         <v>21</v>
       </c>
       <c r="G127" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H127" t="s">
         <v>8</v>
@@ -3627,7 +3783,7 @@
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3636,7 +3792,7 @@
         <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H128" t="s">
         <v>8</v>
@@ -3650,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3659,7 +3815,7 @@
         <v>21</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H129" t="s">
         <v>8</v>
@@ -3673,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -3682,7 +3838,7 @@
         <v>21</v>
       </c>
       <c r="G130" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H130" t="s">
         <v>8</v>
@@ -3696,7 +3852,7 @@
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -3705,7 +3861,7 @@
         <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H131" t="s">
         <v>8</v>
@@ -3719,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3728,7 +3884,7 @@
         <v>21</v>
       </c>
       <c r="G132" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H132" t="s">
         <v>8</v>
@@ -3742,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -3751,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H133" t="s">
         <v>8</v>
@@ -3765,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -3774,7 +3930,7 @@
         <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H134" t="s">
         <v>8</v>
@@ -3788,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -3797,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H135" t="s">
         <v>8</v>
@@ -3811,7 +3967,7 @@
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -3820,7 +3976,7 @@
         <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H136" t="s">
         <v>8</v>
@@ -3834,7 +3990,7 @@
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -3843,7 +3999,7 @@
         <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H137" t="s">
         <v>8</v>
@@ -3857,7 +4013,7 @@
         <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -3866,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="G138" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H138" t="s">
         <v>8</v>
@@ -3880,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -3889,7 +4045,7 @@
         <v>21</v>
       </c>
       <c r="G139" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H139" t="s">
         <v>8</v>
@@ -3903,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -3912,7 +4068,7 @@
         <v>21</v>
       </c>
       <c r="G140" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H140" t="s">
         <v>8</v>
@@ -3926,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -3935,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H141" t="s">
         <v>8</v>
@@ -3953,7 +4109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,16 +4153,16 @@
         <v>3000</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>6</v>
@@ -4020,7 +4176,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4029,10 +4185,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -4043,7 +4199,7 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4051,13 +4207,13 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4066,7 +4222,7 @@
         <v>3003</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -4074,13 +4230,13 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4089,7 +4245,7 @@
         <v>3004</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -4097,13 +4253,13 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4118,8 +4274,8 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67:H67"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,25 +4319,25 @@
         <v>4001</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4189,25 +4345,25 @@
         <v>4002</v>
       </c>
       <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4215,25 +4371,25 @@
         <v>4003</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4241,25 +4397,25 @@
         <v>4004</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4267,25 +4423,25 @@
         <v>4005</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4293,25 +4449,25 @@
         <v>4006</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,25 +4475,25 @@
         <v>4007</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,25 +4501,25 @@
         <v>4008</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4371,25 +4527,25 @@
         <v>4009</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4397,25 +4553,25 @@
         <v>4010</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4423,25 +4579,25 @@
         <v>4011</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4449,25 +4605,25 @@
         <v>4012</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4475,25 +4631,25 @@
         <v>4013</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4501,25 +4657,25 @@
         <v>4014</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4527,25 +4683,25 @@
         <v>4015</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4553,25 +4709,25 @@
         <v>4016</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4579,25 +4735,25 @@
         <v>4017</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4605,25 +4761,25 @@
         <v>4018</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4631,25 +4787,25 @@
         <v>4019</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,25 +4813,25 @@
         <v>4020</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,25 +4839,25 @@
         <v>4021</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4709,25 +4865,25 @@
         <v>4022</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4735,25 +4891,25 @@
         <v>4023</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4761,25 +4917,25 @@
         <v>4024</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4787,22 +4943,22 @@
         <v>4025</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4810,22 +4966,22 @@
         <v>4026</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
         <v>186</v>
       </c>
-      <c r="D27" t="s">
-        <v>189</v>
-      </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,22 +4989,22 @@
         <v>4027</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4856,22 +5012,22 @@
         <v>4028</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4879,22 +5035,22 @@
         <v>4029</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,22 +5058,22 @@
         <v>4030</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
         <v>186</v>
       </c>
-      <c r="D31" t="s">
-        <v>189</v>
-      </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4925,22 +5081,22 @@
         <v>4031</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4948,22 +5104,22 @@
         <v>4032</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4974,19 +5130,19 @@
         <v>21</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,19 +5153,19 @@
         <v>21</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5017,13 +5173,13 @@
         <v>4035</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5031,13 +5187,13 @@
         <v>4036</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5045,22 +5201,22 @@
         <v>4037</v>
       </c>
       <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" t="s">
-        <v>203</v>
-      </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5068,22 +5224,22 @@
         <v>4038</v>
       </c>
       <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" t="s">
-        <v>203</v>
-      </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5101,22 +5257,22 @@
         <v>4041</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5124,22 +5280,22 @@
         <v>4042</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5147,22 +5303,22 @@
         <v>4043</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="s">
         <v>220</v>
       </c>
-      <c r="G44" t="s">
-        <v>223</v>
-      </c>
       <c r="H44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5170,22 +5326,22 @@
         <v>4044</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5193,22 +5349,22 @@
         <v>4045</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5216,22 +5372,22 @@
         <v>4046</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5239,22 +5395,22 @@
         <v>4047</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5262,22 +5418,22 @@
         <v>4048</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5285,13 +5441,13 @@
         <v>4049</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -5299,13 +5455,13 @@
         <v>4050</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5313,13 +5469,13 @@
         <v>4051</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -5327,13 +5483,13 @@
         <v>4052</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -5341,25 +5497,25 @@
         <v>4053</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="H54" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5367,25 +5523,25 @@
         <v>4054</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5393,22 +5549,22 @@
         <v>4055</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5416,22 +5572,22 @@
         <v>4056</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5439,22 +5595,22 @@
         <v>4057</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5462,22 +5618,22 @@
         <v>4058</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5485,13 +5641,13 @@
         <v>4059</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5499,13 +5655,13 @@
         <v>4060</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5513,13 +5669,13 @@
         <v>4061</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5527,13 +5683,13 @@
         <v>4062</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5541,22 +5697,22 @@
         <v>4063</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G64" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5564,22 +5720,22 @@
         <v>4064</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5587,22 +5743,22 @@
         <v>4065</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5610,22 +5766,22 @@
         <v>4066</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5638,9 +5794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,94 +5837,94 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>247</v>
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>247</v>
+        <v>156</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
         <v>249</v>
       </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>253</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5776,22 +5932,22 @@
         <v>5002</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,22 +5955,22 @@
         <v>5003</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,22 +5978,22 @@
         <v>5004</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5896,22 +6052,22 @@
         <v>6000</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5919,22 +6075,22 @@
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5942,22 +6098,22 @@
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5965,22 +6121,22 @@
         <v>6003</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5988,22 +6144,22 @@
         <v>6004</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6011,22 +6167,22 @@
         <v>6005</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6034,13 +6190,13 @@
         <v>6006</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6048,13 +6204,13 @@
         <v>6007</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6062,13 +6218,13 @@
         <v>6008</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6076,13 +6232,13 @@
         <v>6009</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6286,22 +6442,22 @@
         <v>7101</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
         <v>263</v>
       </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6309,22 +6465,22 @@
         <v>7102</v>
       </c>
       <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6332,22 +6488,22 @@
         <v>7103</v>
       </c>
       <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
         <v>263</v>
       </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" t="s">
-        <v>267</v>
-      </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6355,22 +6511,22 @@
         <v>7104</v>
       </c>
       <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
         <v>263</v>
-      </c>
-      <c r="C5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" t="s">
-        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6378,22 +6534,22 @@
         <v>7105</v>
       </c>
       <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="s">
         <v>263</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" t="s">
-        <v>267</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6401,22 +6557,22 @@
         <v>7106</v>
       </c>
       <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
         <v>263</v>
       </c>
-      <c r="C7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" t="s">
-        <v>267</v>
-      </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6424,22 +6580,22 @@
         <v>7107</v>
       </c>
       <c r="B8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
         <v>263</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" t="s">
-        <v>267</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6447,22 +6603,22 @@
         <v>7108</v>
       </c>
       <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
         <v>263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6470,13 +6626,13 @@
         <v>7109</v>
       </c>
       <c r="B10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
         <v>263</v>
-      </c>
-      <c r="C10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6484,13 +6640,13 @@
         <v>7110</v>
       </c>
       <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
         <v>263</v>
-      </c>
-      <c r="C11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6498,13 +6654,13 @@
         <v>7111</v>
       </c>
       <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" t="s">
         <v>263</v>
-      </c>
-      <c r="C12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6512,13 +6668,13 @@
         <v>7112</v>
       </c>
       <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
         <v>263</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6526,13 +6682,13 @@
         <v>7113</v>
       </c>
       <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
         <v>263</v>
-      </c>
-      <c r="C14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6540,13 +6696,13 @@
         <v>7114</v>
       </c>
       <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" t="s">
         <v>263</v>
-      </c>
-      <c r="C15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6554,13 +6710,13 @@
         <v>7115</v>
       </c>
       <c r="B16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
         <v>263</v>
-      </c>
-      <c r="C16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6568,13 +6724,13 @@
         <v>7116</v>
       </c>
       <c r="B17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
         <v>263</v>
-      </c>
-      <c r="C17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6582,13 +6738,13 @@
         <v>7117</v>
       </c>
       <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
         <v>263</v>
-      </c>
-      <c r="C18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6596,13 +6752,13 @@
         <v>7118</v>
       </c>
       <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
         <v>263</v>
-      </c>
-      <c r="C19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6610,13 +6766,13 @@
         <v>7119</v>
       </c>
       <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
         <v>263</v>
-      </c>
-      <c r="C20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6624,13 +6780,13 @@
         <v>7120</v>
       </c>
       <c r="B21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
         <v>263</v>
-      </c>
-      <c r="C21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6638,22 +6794,22 @@
         <v>7121</v>
       </c>
       <c r="B22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
         <v>263</v>
       </c>
-      <c r="C22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" t="s">
-        <v>267</v>
-      </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6661,22 +6817,22 @@
         <v>7122</v>
       </c>
       <c r="B23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
         <v>263</v>
       </c>
-      <c r="C23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" t="s">
-        <v>267</v>
-      </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6684,22 +6840,22 @@
         <v>7123</v>
       </c>
       <c r="B24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" t="s">
         <v>263</v>
       </c>
-      <c r="C24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" t="s">
-        <v>267</v>
-      </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6707,22 +6863,22 @@
         <v>7124</v>
       </c>
       <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" t="s">
         <v>263</v>
       </c>
-      <c r="C25" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" t="s">
-        <v>267</v>
-      </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6730,22 +6886,22 @@
         <v>7201</v>
       </c>
       <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
         <v>264</v>
       </c>
-      <c r="C27" t="s">
-        <v>268</v>
-      </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6753,22 +6909,22 @@
         <v>7202</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6776,22 +6932,22 @@
         <v>7203</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6799,22 +6955,22 @@
         <v>7204</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6822,22 +6978,22 @@
         <v>7205</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -6845,13 +7001,13 @@
         <v>7206</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6859,13 +7015,13 @@
         <v>7207</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6873,22 +7029,22 @@
         <v>7301</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6896,22 +7052,22 @@
         <v>7302</v>
       </c>
       <c r="B36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" t="s">
         <v>265</v>
       </c>
-      <c r="C36" t="s">
-        <v>269</v>
-      </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6919,22 +7075,22 @@
         <v>7303</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -6942,22 +7098,22 @@
         <v>7304</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -6965,22 +7121,22 @@
         <v>7305</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -6988,22 +7144,22 @@
         <v>7306</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -7011,13 +7167,13 @@
         <v>7307</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7025,22 +7181,22 @@
         <v>7401</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -7048,22 +7204,22 @@
         <v>7402</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -7071,22 +7227,22 @@
         <v>7403</v>
       </c>
       <c r="B45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" t="s">
         <v>266</v>
       </c>
-      <c r="C45" t="s">
-        <v>270</v>
-      </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7094,22 +7250,22 @@
         <v>7404</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -7117,22 +7273,22 @@
         <v>7405</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7140,13 +7296,13 @@
         <v>7406</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -7154,13 +7310,13 @@
         <v>7407</v>
       </c>
       <c r="B49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7222,19 +7378,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
         <v>301</v>
       </c>
-      <c r="F2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" t="s">
-        <v>305</v>
-      </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7245,19 +7401,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" t="s">
         <v>303</v>
       </c>
-      <c r="F3" t="s">
-        <v>307</v>
-      </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7265,22 +7421,22 @@
         <v>8003</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
         <v>301</v>
       </c>
-      <c r="F4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" t="s">
-        <v>305</v>
-      </c>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7288,22 +7444,22 @@
         <v>8004</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.25">
@@ -7319,7 +7475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -7368,19 +7524,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7388,22 +7544,22 @@
         <v>9002</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.25">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="363">
   <si>
     <t>Cable#</t>
   </si>
@@ -1106,6 +1106,21 @@
   </si>
   <si>
     <t>E16</t>
+  </si>
+  <si>
+    <t>5004A</t>
+  </si>
+  <si>
+    <t>5004B</t>
+  </si>
+  <si>
+    <t>5004C</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
   </si>
 </sst>
 </file>
@@ -1537,17 +1552,17 @@
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -1596,7 +1611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -1665,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -1757,12 +1772,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -1800,17 +1815,17 @@
       <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -1862,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2002</v>
       </c>
@@ -1888,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2003</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2004</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2005</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2006</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2007</v>
       </c>
@@ -2000,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2008</v>
       </c>
@@ -2017,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2009</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2010</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -2086,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2012</v>
       </c>
@@ -2109,7 +2124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2013</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2014</v>
       </c>
@@ -2156,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -2179,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2017</v>
       </c>
@@ -2225,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2018</v>
       </c>
@@ -2239,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2019</v>
       </c>
@@ -2253,7 +2268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2021</v>
       </c>
@@ -2281,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2022</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2023</v>
       </c>
@@ -2309,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2024</v>
       </c>
@@ -2323,7 +2338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2025</v>
       </c>
@@ -2337,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2026</v>
       </c>
@@ -2351,7 +2366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2027</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2028</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2029</v>
       </c>
@@ -2402,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2030</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2031</v>
       </c>
@@ -2448,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2032</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2033</v>
       </c>
@@ -2494,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2034</v>
       </c>
@@ -2517,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2035</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2036</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2037</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2038</v>
       </c>
@@ -2609,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2039</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2040</v>
       </c>
@@ -2655,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2041</v>
       </c>
@@ -2678,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2042</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2043</v>
       </c>
@@ -2724,7 +2739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2044</v>
       </c>
@@ -2748,37 +2763,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2045</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2046</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2047</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2048</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2049</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2051</v>
       </c>
@@ -2804,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2052</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2053</v>
       </c>
@@ -2856,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2054</v>
       </c>
@@ -2882,7 +2897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2055</v>
       </c>
@@ -2908,7 +2923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2056</v>
       </c>
@@ -2932,7 +2947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2057</v>
       </c>
@@ -2956,7 +2971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2058</v>
       </c>
@@ -2979,217 +2994,217 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2059</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2060</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2061</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2062</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2063</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2064</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2065</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2066</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2067</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2068</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2069</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2070</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2071</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2072</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2073</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2074</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2075</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2076</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2077</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2078</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2079</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2080</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2081</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2082</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2083</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2084</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2085</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2086</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2087</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2088</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2089</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2090</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2091</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2092</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2093</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>2094</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>2095</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>2096</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2097</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>2098</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>2099</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2100</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>2101</v>
       </c>
@@ -3212,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2102</v>
       </c>
@@ -3235,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2103</v>
       </c>
@@ -3258,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2104</v>
       </c>
@@ -3281,7 +3296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2105</v>
       </c>
@@ -3304,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2106</v>
       </c>
@@ -3327,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2107</v>
       </c>
@@ -3350,7 +3365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>2108</v>
       </c>
@@ -3373,7 +3388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2109</v>
       </c>
@@ -3396,7 +3411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2110</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>2111</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>2112</v>
       </c>
@@ -3465,7 +3480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>2113</v>
       </c>
@@ -3488,7 +3503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>2114</v>
       </c>
@@ -3511,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>2115</v>
       </c>
@@ -3534,7 +3549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>2116</v>
       </c>
@@ -3557,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>2117</v>
       </c>
@@ -3580,7 +3595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>2118</v>
       </c>
@@ -3603,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>2119</v>
       </c>
@@ -3626,7 +3641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>2120</v>
       </c>
@@ -3649,7 +3664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>2121</v>
       </c>
@@ -3672,7 +3687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>2122</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2123</v>
       </c>
@@ -3706,7 +3721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2124</v>
       </c>
@@ -3729,7 +3744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2125</v>
       </c>
@@ -3752,7 +3767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2126</v>
       </c>
@@ -3775,7 +3790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>2127</v>
       </c>
@@ -3798,7 +3813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>2128</v>
       </c>
@@ -3821,7 +3836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>2129</v>
       </c>
@@ -3844,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>2130</v>
       </c>
@@ -3867,7 +3882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>2131</v>
       </c>
@@ -3890,7 +3905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>2132</v>
       </c>
@@ -3913,7 +3928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>2133</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>2134</v>
       </c>
@@ -3959,7 +3974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>2135</v>
       </c>
@@ -3982,7 +3997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>2136</v>
       </c>
@@ -4005,7 +4020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>2137</v>
       </c>
@@ -4028,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>2138</v>
       </c>
@@ -4051,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>2139</v>
       </c>
@@ -4074,7 +4089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>2140</v>
       </c>
@@ -4112,17 +4127,17 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4148,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>3000</v>
       </c>
@@ -4171,7 +4186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3001</v>
       </c>
@@ -4194,7 +4209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3002</v>
       </c>
@@ -4217,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
@@ -4240,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
@@ -4278,17 +4293,17 @@
       <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>4001</v>
       </c>
@@ -4340,7 +4355,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4002</v>
       </c>
@@ -4366,7 +4381,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4003</v>
       </c>
@@ -4392,7 +4407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4004</v>
       </c>
@@ -4418,7 +4433,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4005</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4006</v>
       </c>
@@ -4470,7 +4485,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4007</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4008</v>
       </c>
@@ -4522,7 +4537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>4009</v>
       </c>
@@ -4548,7 +4563,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>4010</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4011</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>4012</v>
       </c>
@@ -4626,7 +4641,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4013</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4014</v>
       </c>
@@ -4678,7 +4693,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4015</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4016</v>
       </c>
@@ -4730,7 +4745,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>4017</v>
       </c>
@@ -4756,7 +4771,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>4018</v>
       </c>
@@ -4782,7 +4797,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>4019</v>
       </c>
@@ -4808,7 +4823,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4020</v>
       </c>
@@ -4834,7 +4849,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4021</v>
       </c>
@@ -4860,7 +4875,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>4022</v>
       </c>
@@ -4886,7 +4901,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>4023</v>
       </c>
@@ -4912,7 +4927,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>4024</v>
       </c>
@@ -4938,7 +4953,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>4025</v>
       </c>
@@ -4961,7 +4976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>4026</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>4027</v>
       </c>
@@ -5007,7 +5022,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4028</v>
       </c>
@@ -5030,7 +5045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4029</v>
       </c>
@@ -5053,7 +5068,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>4030</v>
       </c>
@@ -5076,7 +5091,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4031</v>
       </c>
@@ -5099,7 +5114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4032</v>
       </c>
@@ -5122,7 +5137,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4033</v>
       </c>
@@ -5145,7 +5160,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4034</v>
       </c>
@@ -5168,7 +5183,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>4035</v>
       </c>
@@ -5182,7 +5197,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>4036</v>
       </c>
@@ -5196,7 +5211,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4037</v>
       </c>
@@ -5219,7 +5234,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>4038</v>
       </c>
@@ -5242,17 +5257,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>4039</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>4040</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>4041</v>
       </c>
@@ -5275,7 +5290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>4042</v>
       </c>
@@ -5298,7 +5313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>4043</v>
       </c>
@@ -5321,7 +5336,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>4044</v>
       </c>
@@ -5344,7 +5359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>4045</v>
       </c>
@@ -5367,7 +5382,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>4046</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>4047</v>
       </c>
@@ -5413,7 +5428,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>4048</v>
       </c>
@@ -5436,7 +5451,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>4049</v>
       </c>
@@ -5450,7 +5465,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>4050</v>
       </c>
@@ -5464,7 +5479,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>4051</v>
       </c>
@@ -5478,7 +5493,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>4052</v>
       </c>
@@ -5492,7 +5507,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>4053</v>
       </c>
@@ -5518,7 +5533,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>4054</v>
       </c>
@@ -5544,7 +5559,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>4055</v>
       </c>
@@ -5567,7 +5582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>4056</v>
       </c>
@@ -5590,7 +5605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>4057</v>
       </c>
@@ -5613,7 +5628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>4058</v>
       </c>
@@ -5636,7 +5651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>4059</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>4060</v>
       </c>
@@ -5664,7 +5679,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>4061</v>
       </c>
@@ -5678,7 +5693,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>4062</v>
       </c>
@@ -5692,7 +5707,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>4063</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>4064</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>4065</v>
       </c>
@@ -5761,7 +5776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>4066</v>
       </c>
@@ -5792,24 +5807,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5835,7 +5850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>244</v>
       </c>
@@ -5858,7 +5873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>244</v>
       </c>
@@ -5881,7 +5896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>245</v>
       </c>
@@ -5904,7 +5919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>247</v>
       </c>
@@ -5927,7 +5942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5002</v>
       </c>
@@ -5950,7 +5965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5003</v>
       </c>
@@ -5973,9 +5988,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5004</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="B8" t="s">
         <v>236</v>
@@ -5993,6 +6008,52 @@
         <v>250</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6011,17 +6072,17 @@
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6047,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>6000</v>
       </c>
@@ -6070,7 +6131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6001</v>
       </c>
@@ -6093,7 +6154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>6002</v>
       </c>
@@ -6116,7 +6177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6003</v>
       </c>
@@ -6139,7 +6200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6004</v>
       </c>
@@ -6162,7 +6223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6005</v>
       </c>
@@ -6185,7 +6246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6006</v>
       </c>
@@ -6199,7 +6260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6007</v>
       </c>
@@ -6213,7 +6274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6008</v>
       </c>
@@ -6227,7 +6288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>6009</v>
       </c>
@@ -6241,147 +6302,147 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6010</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>6012</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>6013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>6014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>6015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>6017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>6018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>6020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>6021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>6022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>6023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>6025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>6026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>6027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>6028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>6029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>6031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>6032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>6033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>6034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>6035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>6038</v>
       </c>
@@ -6401,17 +6462,17 @@
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6437,7 +6498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>7101</v>
       </c>
@@ -6460,7 +6521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>7102</v>
       </c>
@@ -6483,7 +6544,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7103</v>
       </c>
@@ -6506,7 +6567,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7104</v>
       </c>
@@ -6529,7 +6590,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7105</v>
       </c>
@@ -6552,7 +6613,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7106</v>
       </c>
@@ -6575,7 +6636,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7107</v>
       </c>
@@ -6598,7 +6659,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7108</v>
       </c>
@@ -6621,7 +6682,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7109</v>
       </c>
@@ -6635,7 +6696,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7110</v>
       </c>
@@ -6649,7 +6710,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7111</v>
       </c>
@@ -6663,7 +6724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>7112</v>
       </c>
@@ -6677,7 +6738,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7113</v>
       </c>
@@ -6691,7 +6752,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7114</v>
       </c>
@@ -6705,7 +6766,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7115</v>
       </c>
@@ -6719,7 +6780,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>7116</v>
       </c>
@@ -6733,7 +6794,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>7117</v>
       </c>
@@ -6747,7 +6808,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7118</v>
       </c>
@@ -6761,7 +6822,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>7119</v>
       </c>
@@ -6775,7 +6836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>7120</v>
       </c>
@@ -6789,7 +6850,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>7121</v>
       </c>
@@ -6812,7 +6873,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>7122</v>
       </c>
@@ -6835,7 +6896,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>7123</v>
       </c>
@@ -6858,7 +6919,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>7124</v>
       </c>
@@ -6881,7 +6942,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>7201</v>
       </c>
@@ -6904,7 +6965,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>7202</v>
       </c>
@@ -6927,7 +6988,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7203</v>
       </c>
@@ -6950,7 +7011,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>7204</v>
       </c>
@@ -6973,7 +7034,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>7205</v>
       </c>
@@ -6996,7 +7057,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>7206</v>
       </c>
@@ -7010,7 +7071,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>7207</v>
       </c>
@@ -7024,7 +7085,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>7301</v>
       </c>
@@ -7047,7 +7108,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7302</v>
       </c>
@@ -7070,7 +7131,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>7303</v>
       </c>
@@ -7093,7 +7154,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>7304</v>
       </c>
@@ -7116,7 +7177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>7305</v>
       </c>
@@ -7139,7 +7200,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7306</v>
       </c>
@@ -7162,7 +7223,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7307</v>
       </c>
@@ -7176,7 +7237,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>7401</v>
       </c>
@@ -7199,7 +7260,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7402</v>
       </c>
@@ -7222,7 +7283,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>7403</v>
       </c>
@@ -7245,7 +7306,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>7404</v>
       </c>
@@ -7268,7 +7329,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>7405</v>
       </c>
@@ -7291,7 +7352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>7406</v>
       </c>
@@ -7305,7 +7366,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>7407</v>
       </c>
@@ -7334,17 +7395,17 @@
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7370,7 +7431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>8001</v>
       </c>
@@ -7393,7 +7454,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>8002</v>
       </c>
@@ -7416,7 +7477,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>8003</v>
       </c>
@@ -7439,7 +7500,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>8004</v>
       </c>
@@ -7462,7 +7523,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G25" s="6"/>
     </row>
   </sheetData>
@@ -7480,17 +7541,17 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7516,7 +7577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>9001</v>
       </c>
@@ -7539,7 +7600,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>9002</v>
       </c>
@@ -7562,7 +7623,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G25" s="6"/>
     </row>
   </sheetData>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="363">
   <si>
     <t>Cable#</t>
   </si>
@@ -916,9 +916,6 @@
     <t>Audio Mixer 01</t>
   </si>
   <si>
-    <t>RTR Panel 02</t>
-  </si>
-  <si>
     <t>DVI O/P</t>
   </si>
   <si>
@@ -1121,6 +1118,9 @@
   </si>
   <si>
     <t>E14</t>
+  </si>
+  <si>
+    <t>I/O 43</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1794,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>8</v>
@@ -1865,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1917,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1943,7 +1943,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1969,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1986,7 +1986,7 @@
         <v>2006</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -2003,7 +2003,7 @@
         <v>2007</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -2020,7 +2020,7 @@
         <v>2008</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -2757,7 +2757,7 @@
         <v>156</v>
       </c>
       <c r="G45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -2807,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
@@ -2833,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
@@ -2859,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -2885,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -2911,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -2941,7 +2941,7 @@
         <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H57" t="s">
         <v>8</v>
@@ -2965,7 +2965,7 @@
         <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H58" t="s">
         <v>8</v>
@@ -4226,7 +4226,7 @@
         <v>156</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>8</v>
@@ -4249,7 +4249,7 @@
         <v>156</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>8</v>
@@ -4272,7 +4272,7 @@
         <v>156</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>8</v>
@@ -4337,7 +4337,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
         <v>157</v>
@@ -4363,7 +4363,7 @@
         <v>156</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
         <v>157</v>
@@ -4389,7 +4389,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
         <v>157</v>
@@ -4415,7 +4415,7 @@
         <v>156</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
         <v>157</v>
@@ -4441,7 +4441,7 @@
         <v>156</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D6" t="s">
         <v>157</v>
@@ -4467,7 +4467,7 @@
         <v>156</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
         <v>157</v>
@@ -4493,7 +4493,7 @@
         <v>156</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" t="s">
         <v>157</v>
@@ -4519,7 +4519,7 @@
         <v>156</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" t="s">
         <v>157</v>
@@ -4545,7 +4545,7 @@
         <v>156</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" t="s">
         <v>157</v>
@@ -4571,7 +4571,7 @@
         <v>156</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
         <v>157</v>
@@ -4597,7 +4597,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" t="s">
         <v>157</v>
@@ -4623,7 +4623,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
         <v>157</v>
@@ -4649,7 +4649,7 @@
         <v>156</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
         <v>157</v>
@@ -4675,7 +4675,7 @@
         <v>156</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" t="s">
         <v>157</v>
@@ -4701,7 +4701,7 @@
         <v>156</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" t="s">
         <v>157</v>
@@ -4727,7 +4727,7 @@
         <v>156</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s">
         <v>157</v>
@@ -4753,7 +4753,7 @@
         <v>156</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" t="s">
         <v>157</v>
@@ -4779,7 +4779,7 @@
         <v>156</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D19" t="s">
         <v>157</v>
@@ -4805,7 +4805,7 @@
         <v>156</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D20" t="s">
         <v>157</v>
@@ -4831,7 +4831,7 @@
         <v>156</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
         <v>157</v>
@@ -4857,7 +4857,7 @@
         <v>156</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
         <v>157</v>
@@ -4883,7 +4883,7 @@
         <v>156</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
         <v>157</v>
@@ -4909,7 +4909,7 @@
         <v>156</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
         <v>157</v>
@@ -4935,7 +4935,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D25" t="s">
         <v>157</v>
@@ -5527,7 +5527,7 @@
         <v>156</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H54" t="s">
         <v>223</v>
@@ -5553,7 +5553,7 @@
         <v>156</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H55" t="s">
         <v>223</v>
@@ -5809,7 +5809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
@@ -5867,7 +5867,7 @@
         <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -5890,7 +5890,7 @@
         <v>156</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>236</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
         <v>236</v>
@@ -6028,7 +6028,7 @@
         <v>156</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>29</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
         <v>236</v>
@@ -6051,7 +6051,7 @@
         <v>156</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>29</v>
@@ -6457,9 +6457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6935,8 +6935,8 @@
       <c r="F25" t="s">
         <v>290</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>29</v>
+      <c r="G25" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="H25" t="s">
         <v>263</v>
@@ -7070,6 +7070,15 @@
       <c r="D32" t="s">
         <v>263</v>
       </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -7213,15 +7222,6 @@
       <c r="D40" t="s">
         <v>263</v>
       </c>
-      <c r="F40" t="s">
-        <v>292</v>
-      </c>
-      <c r="G40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -7340,15 +7340,6 @@
         <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
-      </c>
-      <c r="F47" t="s">
-        <v>294</v>
-      </c>
-      <c r="G47" t="s">
-        <v>288</v>
-      </c>
-      <c r="H47" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7439,19 +7430,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
         <v>300</v>
       </c>
-      <c r="G2" t="s">
-        <v>301</v>
-      </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7462,19 +7453,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -7485,19 +7476,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -7508,19 +7499,19 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">
@@ -7588,16 +7579,16 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" t="s">
         <v>307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7605,22 +7596,22 @@
         <v>9002</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
         <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="364">
   <si>
     <t>Cable#</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>I/O 43</t>
+  </si>
+  <si>
+    <t>VMX PC</t>
   </si>
 </sst>
 </file>
@@ -6458,8 +6461,8 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7091,6 +7094,15 @@
         <v>270</v>
       </c>
       <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" t="s">
         <v>263</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="365">
   <si>
     <t>Cable#</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>VMX PC</t>
+  </si>
+  <si>
+    <t>A11</t>
   </si>
 </sst>
 </file>
@@ -1813,9 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2425,10 +2428,10 @@
         <v>2030</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -2704,7 +2707,7 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2727,7 +2730,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2940,15 +2943,6 @@
         <v>8</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" t="s">
-        <v>324</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -2964,15 +2958,6 @@
         <v>8</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" t="s">
-        <v>325</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -3006,98 +2991,224 @@
       <c r="A61" s="1">
         <v>2060</v>
       </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2061</v>
       </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2062</v>
       </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" t="s">
+        <v>324</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2063</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2064</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>364</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2065</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2066</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2067</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2068</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2069</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2070</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2071</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2072</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2073</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2074</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2075</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2076</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2077</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2078</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2079</v>
       </c>
@@ -6460,9 +6571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="367">
   <si>
     <t>Cable#</t>
   </si>
@@ -1126,7 +1126,13 @@
     <t>VMX PC</t>
   </si>
   <si>
+    <t>Stream 01</t>
+  </si>
+  <si>
     <t>A11</t>
+  </si>
+  <si>
+    <t>Steam 01</t>
   </si>
 </sst>
 </file>
@@ -1817,8 +1823,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3023,6 +3029,15 @@
       <c r="D62" t="s">
         <v>8</v>
       </c>
+      <c r="F62" t="s">
+        <v>364</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -3087,7 +3102,7 @@
         <v>156</v>
       </c>
       <c r="G65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
@@ -6573,7 +6588,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6807,6 +6822,15 @@
         <v>272</v>
       </c>
       <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" t="s">
         <v>263</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="368">
   <si>
     <t>Cable#</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Cam 05</t>
   </si>
   <si>
-    <t>JF XX</t>
-  </si>
-  <si>
     <t>Mon O/P</t>
   </si>
   <si>
@@ -1133,6 +1130,12 @@
   </si>
   <si>
     <t>Steam 01</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
   </si>
 </sst>
 </file>
@@ -1803,10 +1806,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>8</v>
@@ -1823,8 +1826,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62:H62"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1877,13 +1880,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1903,13 +1906,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1929,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1955,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -1981,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -1998,13 +2001,13 @@
         <v>2006</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -2015,13 +2018,13 @@
         <v>2007</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -2032,13 +2035,13 @@
         <v>2008</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -2061,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -2075,7 +2078,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -2084,7 +2087,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -2107,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -2121,7 +2124,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -2130,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -2153,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -2177,7 +2180,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>8</v>
@@ -2191,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -2200,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -2211,11 +2214,11 @@
         <v>2016</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
@@ -2234,11 +2237,11 @@
         <v>2017</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
@@ -2260,7 +2263,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -2274,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -2288,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
@@ -2302,7 +2305,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -2316,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" t="s">
         <v>8</v>
@@ -2330,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
@@ -2344,7 +2347,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -2358,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
@@ -2372,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
@@ -2386,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
@@ -2400,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -2411,10 +2414,10 @@
         <v>2029</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -2423,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
@@ -2437,7 +2440,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -2446,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
@@ -2460,7 +2463,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -2469,7 +2472,7 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
@@ -2483,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -2492,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
@@ -2506,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2515,7 +2518,7 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
@@ -2529,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2538,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
@@ -2552,7 +2555,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2561,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
         <v>8</v>
@@ -2575,7 +2578,7 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -2584,7 +2587,7 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
@@ -2598,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2607,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
@@ -2621,7 +2624,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -2630,7 +2633,7 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
@@ -2644,7 +2647,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -2653,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
@@ -2667,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2676,7 +2679,7 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
@@ -2687,19 +2690,19 @@
         <v>2041</v>
       </c>
       <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
         <v>136</v>
       </c>
-      <c r="C42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>137</v>
-      </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
@@ -2713,13 +2716,13 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -2736,13 +2739,13 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -2756,20 +2759,20 @@
         <v>2044</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -2810,22 +2813,22 @@
         <v>2051</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
@@ -2836,22 +2839,22 @@
         <v>2052</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H53" t="s">
         <v>8</v>
@@ -2862,22 +2865,22 @@
         <v>2053</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
@@ -2888,22 +2891,22 @@
         <v>2054</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H55" t="s">
         <v>8</v>
@@ -2914,22 +2917,22 @@
         <v>2055</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H56" t="s">
         <v>8</v>
@@ -2940,10 +2943,10 @@
         <v>2056</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2955,10 +2958,10 @@
         <v>2057</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -2970,16 +2973,16 @@
         <v>2058</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
         <v>6</v>
@@ -2998,10 +3001,10 @@
         <v>2060</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -3024,13 +3027,13 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
@@ -3047,16 +3050,16 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H63" t="s">
         <v>8</v>
@@ -3070,16 +3073,16 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
@@ -3093,16 +3096,16 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
@@ -3116,7 +3119,7 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -3130,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -3144,7 +3147,7 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -3158,7 +3161,7 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -3172,7 +3175,7 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -3341,13 +3344,13 @@
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -3364,16 +3367,16 @@
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
@@ -3387,16 +3390,16 @@
         <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
@@ -3410,16 +3413,16 @@
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
@@ -3433,16 +3436,16 @@
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H106" t="s">
         <v>8</v>
@@ -3456,16 +3459,16 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
@@ -3479,16 +3482,16 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H108" t="s">
         <v>8</v>
@@ -3502,16 +3505,16 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H109" t="s">
         <v>8</v>
@@ -3525,16 +3528,16 @@
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
@@ -3554,10 +3557,10 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H111" t="s">
         <v>8</v>
@@ -3571,13 +3574,13 @@
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
         <v>6</v>
@@ -3594,13 +3597,13 @@
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G113" t="s">
         <v>6</v>
@@ -3617,16 +3620,16 @@
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H114" t="s">
         <v>8</v>
@@ -3640,16 +3643,16 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H115" t="s">
         <v>8</v>
@@ -3663,16 +3666,16 @@
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H116" t="s">
         <v>8</v>
@@ -3686,16 +3689,16 @@
         <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
       <c r="F117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G117" t="s">
         <v>146</v>
-      </c>
-      <c r="G117" t="s">
-        <v>147</v>
       </c>
       <c r="H117" t="s">
         <v>8</v>
@@ -3709,7 +3712,7 @@
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -3718,7 +3721,7 @@
         <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
@@ -3732,7 +3735,7 @@
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -3741,7 +3744,7 @@
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H119" t="s">
         <v>8</v>
@@ -3755,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -3764,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="G120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H120" t="s">
         <v>8</v>
@@ -3778,7 +3781,7 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -3787,7 +3790,7 @@
         <v>24</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>8</v>
@@ -3801,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -3810,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="G122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
@@ -3824,13 +3827,20 @@
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>39</v>
+      <c r="E123" s="8"/>
+      <c r="F123" t="s">
+        <v>155</v>
+      </c>
+      <c r="G123" t="s">
+        <v>366</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -3841,13 +3851,20 @@
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>39</v>
+      <c r="E124" s="8"/>
+      <c r="F124" t="s">
+        <v>155</v>
+      </c>
+      <c r="G124" t="s">
+        <v>367</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -3858,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -3867,7 +3884,7 @@
         <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H125" t="s">
         <v>8</v>
@@ -3881,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -3890,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H126" t="s">
         <v>8</v>
@@ -3904,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -3913,7 +3930,7 @@
         <v>21</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
         <v>8</v>
@@ -3927,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -3936,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
         <v>8</v>
@@ -3950,7 +3967,7 @@
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3959,7 +3976,7 @@
         <v>21</v>
       </c>
       <c r="G129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H129" t="s">
         <v>8</v>
@@ -3973,7 +3990,7 @@
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -3982,7 +3999,7 @@
         <v>21</v>
       </c>
       <c r="G130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H130" t="s">
         <v>8</v>
@@ -3996,7 +4013,7 @@
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -4005,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="G131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H131" t="s">
         <v>8</v>
@@ -4019,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -4028,7 +4045,7 @@
         <v>21</v>
       </c>
       <c r="G132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H132" t="s">
         <v>8</v>
@@ -4042,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -4051,7 +4068,7 @@
         <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H133" t="s">
         <v>8</v>
@@ -4065,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -4074,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H134" t="s">
         <v>8</v>
@@ -4088,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -4097,7 +4114,7 @@
         <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
         <v>8</v>
@@ -4111,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -4120,7 +4137,7 @@
         <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H136" t="s">
         <v>8</v>
@@ -4134,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -4143,7 +4160,7 @@
         <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H137" t="s">
         <v>8</v>
@@ -4157,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -4166,7 +4183,7 @@
         <v>21</v>
       </c>
       <c r="G138" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H138" t="s">
         <v>8</v>
@@ -4180,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
@@ -4189,7 +4206,7 @@
         <v>21</v>
       </c>
       <c r="G139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H139" t="s">
         <v>8</v>
@@ -4203,7 +4220,7 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
@@ -4212,7 +4229,7 @@
         <v>21</v>
       </c>
       <c r="G140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H140" t="s">
         <v>8</v>
@@ -4226,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -4235,7 +4252,7 @@
         <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H141" t="s">
         <v>8</v>
@@ -4352,10 +4369,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>8</v>
@@ -4375,10 +4392,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>8</v>
@@ -4398,10 +4415,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>8</v>
@@ -4463,25 +4480,25 @@
         <v>4001</v>
       </c>
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
         <v>154</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4489,25 +4506,25 @@
         <v>4002</v>
       </c>
       <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
         <v>154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4515,25 +4532,25 @@
         <v>4003</v>
       </c>
       <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
         <v>154</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4541,25 +4558,25 @@
         <v>4004</v>
       </c>
       <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>157</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
         <v>154</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4567,25 +4584,25 @@
         <v>4005</v>
       </c>
       <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
         <v>154</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -4593,25 +4610,25 @@
         <v>4006</v>
       </c>
       <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" t="s">
-        <v>157</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
         <v>154</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -4619,25 +4636,25 @@
         <v>4007</v>
       </c>
       <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -4645,25 +4662,25 @@
         <v>4008</v>
       </c>
       <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
         <v>154</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -4671,25 +4688,25 @@
         <v>4009</v>
       </c>
       <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>157</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
         <v>154</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -4697,25 +4714,25 @@
         <v>4010</v>
       </c>
       <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" t="s">
-        <v>157</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -4723,25 +4740,25 @@
         <v>4011</v>
       </c>
       <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" t="s">
-        <v>157</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
         <v>154</v>
-      </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -4749,25 +4766,25 @@
         <v>4012</v>
       </c>
       <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" t="s">
-        <v>157</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
         <v>154</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -4775,25 +4792,25 @@
         <v>4013</v>
       </c>
       <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
         <v>154</v>
-      </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -4801,25 +4818,25 @@
         <v>4014</v>
       </c>
       <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
         <v>154</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -4827,25 +4844,25 @@
         <v>4015</v>
       </c>
       <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
         <v>154</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -4853,25 +4870,25 @@
         <v>4016</v>
       </c>
       <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" t="s">
-        <v>157</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
         <v>154</v>
-      </c>
-      <c r="G17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -4879,25 +4896,25 @@
         <v>4017</v>
       </c>
       <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" t="s">
-        <v>157</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
         <v>154</v>
-      </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -4905,25 +4922,25 @@
         <v>4018</v>
       </c>
       <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" t="s">
-        <v>157</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
         <v>154</v>
-      </c>
-      <c r="G19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -4931,25 +4948,25 @@
         <v>4019</v>
       </c>
       <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D20" t="s">
-        <v>157</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
         <v>154</v>
-      </c>
-      <c r="G20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -4957,25 +4974,25 @@
         <v>4020</v>
       </c>
       <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
         <v>154</v>
-      </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -4983,25 +5000,25 @@
         <v>4021</v>
       </c>
       <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" t="s">
-        <v>157</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -5009,25 +5026,25 @@
         <v>4022</v>
       </c>
       <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
         <v>154</v>
-      </c>
-      <c r="G23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -5035,25 +5052,25 @@
         <v>4023</v>
       </c>
       <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
         <v>154</v>
-      </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -5061,25 +5078,25 @@
         <v>4024</v>
       </c>
       <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D25" t="s">
-        <v>157</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" t="s">
         <v>154</v>
-      </c>
-      <c r="G25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -5087,22 +5104,22 @@
         <v>4025</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -5110,22 +5127,22 @@
         <v>4026</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
         <v>154</v>
-      </c>
-      <c r="G27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -5133,22 +5150,22 @@
         <v>4027</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" t="s">
         <v>154</v>
-      </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -5156,22 +5173,22 @@
         <v>4028</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" t="s">
         <v>185</v>
       </c>
-      <c r="D29" t="s">
-        <v>186</v>
-      </c>
       <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -5179,22 +5196,22 @@
         <v>4029</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
         <v>154</v>
-      </c>
-      <c r="G30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -5202,22 +5219,22 @@
         <v>4030</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" t="s">
         <v>154</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -5225,22 +5242,22 @@
         <v>4031</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" t="s">
         <v>154</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -5248,22 +5265,22 @@
         <v>4032</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" t="s">
         <v>185</v>
       </c>
-      <c r="D33" t="s">
-        <v>186</v>
-      </c>
       <c r="F33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
         <v>154</v>
-      </c>
-      <c r="G33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -5274,19 +5291,19 @@
         <v>21</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
         <v>194</v>
       </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -5297,19 +5314,19 @@
         <v>21</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -5317,13 +5334,13 @@
         <v>4035</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -5331,13 +5348,13 @@
         <v>4036</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -5345,22 +5362,22 @@
         <v>4037</v>
       </c>
       <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>198</v>
-      </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -5368,22 +5385,22 @@
         <v>4038</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
         <v>199</v>
       </c>
-      <c r="D39" t="s">
-        <v>200</v>
-      </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" t="s">
         <v>192</v>
-      </c>
-      <c r="H39" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -5401,22 +5418,22 @@
         <v>4041</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" t="s">
         <v>217</v>
       </c>
-      <c r="G42" t="s">
-        <v>218</v>
-      </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -5424,22 +5441,22 @@
         <v>4042</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -5447,22 +5464,22 @@
         <v>4043</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -5470,22 +5487,22 @@
         <v>4044</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -5493,22 +5510,22 @@
         <v>4045</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -5516,22 +5533,22 @@
         <v>4046</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -5539,22 +5556,22 @@
         <v>4047</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -5562,22 +5579,22 @@
         <v>4048</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -5585,13 +5602,13 @@
         <v>4049</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -5599,13 +5616,13 @@
         <v>4050</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -5613,13 +5630,13 @@
         <v>4051</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -5627,13 +5644,13 @@
         <v>4052</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -5641,25 +5658,25 @@
         <v>4053</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -5667,25 +5684,25 @@
         <v>4054</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -5693,19 +5710,19 @@
         <v>4055</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" t="s">
         <v>226</v>
-      </c>
-      <c r="G56" t="s">
-        <v>227</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>29</v>
@@ -5716,19 +5733,19 @@
         <v>4056</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>29</v>
@@ -5739,19 +5756,19 @@
         <v>4057</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>29</v>
@@ -5762,16 +5779,16 @@
         <v>4058</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>6</v>
@@ -5785,13 +5802,13 @@
         <v>4059</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -5799,13 +5816,13 @@
         <v>4060</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -5813,13 +5830,13 @@
         <v>4061</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -5827,13 +5844,13 @@
         <v>4062</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" t="s">
         <v>234</v>
-      </c>
-      <c r="D63" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -5841,19 +5858,19 @@
         <v>4063</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>29</v>
@@ -5864,19 +5881,19 @@
         <v>4064</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" t="s">
         <v>240</v>
       </c>
-      <c r="D65" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" t="s">
-        <v>241</v>
-      </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>29</v>
@@ -5887,7 +5904,7 @@
         <v>4065</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>2</v>
@@ -5896,7 +5913,7 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>6</v>
@@ -5910,16 +5927,16 @@
         <v>4066</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>6</v>
@@ -5981,22 +5998,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -6004,22 +6021,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -6027,19 +6044,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>6</v>
@@ -6050,22 +6067,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>29</v>
@@ -6076,19 +6093,19 @@
         <v>5002</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>29</v>
@@ -6099,19 +6116,19 @@
         <v>5003</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>29</v>
@@ -6119,22 +6136,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>29</v>
@@ -6142,22 +6159,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>29</v>
@@ -6165,22 +6182,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>29</v>
@@ -6242,16 +6259,16 @@
         <v>6000</v>
       </c>
       <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
         <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>255</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -6265,10 +6282,10 @@
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
@@ -6277,7 +6294,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -6288,10 +6305,10 @@
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
@@ -6300,7 +6317,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>29</v>
@@ -6311,10 +6328,10 @@
         <v>6003</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>29</v>
@@ -6323,7 +6340,7 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>29</v>
@@ -6334,10 +6351,10 @@
         <v>6004</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>29</v>
@@ -6346,7 +6363,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>29</v>
@@ -6357,10 +6374,10 @@
         <v>6005</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
@@ -6369,7 +6386,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>29</v>
@@ -6380,10 +6397,10 @@
         <v>6006</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>29</v>
@@ -6394,10 +6411,10 @@
         <v>6007</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>29</v>
@@ -6408,10 +6425,10 @@
         <v>6008</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
@@ -6422,10 +6439,10 @@
         <v>6009</v>
       </c>
       <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
         <v>256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
@@ -6632,22 +6649,22 @@
         <v>7101</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -6655,22 +6672,22 @@
         <v>7102</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -6678,22 +6695,22 @@
         <v>7103</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -6701,22 +6718,22 @@
         <v>7104</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -6724,22 +6741,22 @@
         <v>7105</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -6747,22 +6764,22 @@
         <v>7106</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -6770,22 +6787,22 @@
         <v>7107</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -6793,22 +6810,22 @@
         <v>7108</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -6816,22 +6833,22 @@
         <v>7109</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -6839,13 +6856,13 @@
         <v>7110</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6853,13 +6870,13 @@
         <v>7111</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -6867,13 +6884,13 @@
         <v>7112</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -6881,13 +6898,13 @@
         <v>7113</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -6895,13 +6912,13 @@
         <v>7114</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -6909,13 +6926,13 @@
         <v>7115</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -6923,13 +6940,13 @@
         <v>7116</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -6937,13 +6954,13 @@
         <v>7117</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -6951,13 +6968,13 @@
         <v>7118</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -6965,13 +6982,13 @@
         <v>7119</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -6979,13 +6996,13 @@
         <v>7120</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -6993,22 +7010,22 @@
         <v>7121</v>
       </c>
       <c r="B22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" t="s">
         <v>259</v>
       </c>
-      <c r="C22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" t="s">
-        <v>263</v>
-      </c>
-      <c r="F22" t="s">
-        <v>260</v>
-      </c>
       <c r="G22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -7016,22 +7033,22 @@
         <v>7122</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -7039,22 +7056,22 @@
         <v>7123</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" t="s">
         <v>262</v>
-      </c>
-      <c r="G24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -7062,22 +7079,22 @@
         <v>7124</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -7085,22 +7102,22 @@
         <v>7201</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -7108,22 +7125,22 @@
         <v>7202</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -7131,22 +7148,22 @@
         <v>7203</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -7154,22 +7171,22 @@
         <v>7204</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -7177,22 +7194,22 @@
         <v>7205</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -7200,22 +7217,22 @@
         <v>7206</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -7223,22 +7240,22 @@
         <v>7207</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -7246,22 +7263,22 @@
         <v>7301</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -7269,22 +7286,22 @@
         <v>7302</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -7292,22 +7309,22 @@
         <v>7303</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -7315,22 +7332,22 @@
         <v>7304</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -7338,22 +7355,22 @@
         <v>7305</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -7361,13 +7378,13 @@
         <v>7306</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -7375,13 +7392,13 @@
         <v>7307</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -7389,22 +7406,22 @@
         <v>7401</v>
       </c>
       <c r="B43" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" t="s">
         <v>262</v>
       </c>
-      <c r="C43" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>263</v>
-      </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -7412,22 +7429,22 @@
         <v>7402</v>
       </c>
       <c r="B44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" t="s">
         <v>262</v>
       </c>
-      <c r="C44" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" t="s">
-        <v>263</v>
-      </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -7435,22 +7452,22 @@
         <v>7403</v>
       </c>
       <c r="B45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" t="s">
         <v>262</v>
       </c>
-      <c r="C45" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" t="s">
-        <v>263</v>
-      </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -7458,22 +7475,22 @@
         <v>7404</v>
       </c>
       <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" t="s">
         <v>262</v>
       </c>
-      <c r="C46" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" t="s">
-        <v>263</v>
-      </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7481,13 +7498,13 @@
         <v>7405</v>
       </c>
       <c r="B47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" t="s">
         <v>262</v>
-      </c>
-      <c r="C47" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7495,13 +7512,13 @@
         <v>7406</v>
       </c>
       <c r="B48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" t="s">
         <v>262</v>
-      </c>
-      <c r="C48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7509,13 +7526,13 @@
         <v>7407</v>
       </c>
       <c r="B49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" t="s">
         <v>262</v>
-      </c>
-      <c r="C49" t="s">
-        <v>270</v>
-      </c>
-      <c r="D49" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7577,19 +7594,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" t="s">
         <v>299</v>
       </c>
-      <c r="G2" t="s">
-        <v>300</v>
-      </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7600,19 +7617,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -7623,19 +7640,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -7646,19 +7663,19 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">
@@ -7723,19 +7740,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
         <v>306</v>
       </c>
-      <c r="F2" t="s">
-        <v>307</v>
-      </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7743,22 +7760,22 @@
         <v>9002</v>
       </c>
       <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>305</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>306</v>
-      </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="369">
   <si>
     <t>Cable#</t>
   </si>
@@ -802,9 +802,6 @@
     <t>ADA 01</t>
   </si>
   <si>
-    <t>Loop O/P</t>
-  </si>
-  <si>
     <t>TC I/P</t>
   </si>
   <si>
@@ -1136,6 +1133,12 @@
   </si>
   <si>
     <t>A07</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>Green Block</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>8</v>
@@ -1825,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
@@ -1880,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -1906,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1932,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1958,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1984,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2001,7 +2004,7 @@
         <v>2006</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -2018,7 +2021,7 @@
         <v>2007</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -2035,7 +2038,7 @@
         <v>2008</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -2772,7 +2775,7 @@
         <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -2822,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
@@ -2848,7 +2851,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
@@ -2874,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F54" t="s">
         <v>36</v>
@@ -2900,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -2926,7 +2929,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
@@ -3033,7 +3036,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
@@ -3059,7 +3062,7 @@
         <v>155</v>
       </c>
       <c r="G63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H63" t="s">
         <v>8</v>
@@ -3082,7 +3085,7 @@
         <v>155</v>
       </c>
       <c r="G64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
@@ -3105,7 +3108,7 @@
         <v>155</v>
       </c>
       <c r="G65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
@@ -3837,7 +3840,7 @@
         <v>155</v>
       </c>
       <c r="G123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
@@ -3861,7 +3864,7 @@
         <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H124" t="s">
         <v>8</v>
@@ -4270,7 +4273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4313,14 +4316,14 @@
       <c r="A2" s="1">
         <v>3000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
+      <c r="D2" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>30</v>
@@ -4372,7 +4375,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>8</v>
@@ -4395,7 +4398,7 @@
         <v>155</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>8</v>
@@ -4418,7 +4421,7 @@
         <v>155</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>8</v>
@@ -4435,8 +4438,8 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4483,7 +4486,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
         <v>156</v>
@@ -4509,7 +4512,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
         <v>156</v>
@@ -4535,7 +4538,7 @@
         <v>155</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
         <v>156</v>
@@ -4561,7 +4564,7 @@
         <v>155</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
@@ -4587,7 +4590,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
         <v>156</v>
@@ -4613,7 +4616,7 @@
         <v>155</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
         <v>156</v>
@@ -4639,7 +4642,7 @@
         <v>155</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
         <v>156</v>
@@ -4665,7 +4668,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
         <v>156</v>
@@ -4691,7 +4694,7 @@
         <v>155</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" t="s">
         <v>156</v>
@@ -4717,7 +4720,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" t="s">
         <v>156</v>
@@ -4743,7 +4746,7 @@
         <v>155</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" t="s">
         <v>156</v>
@@ -4769,7 +4772,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
         <v>156</v>
@@ -4795,7 +4798,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" t="s">
         <v>156</v>
@@ -4821,7 +4824,7 @@
         <v>155</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
         <v>156</v>
@@ -4847,7 +4850,7 @@
         <v>155</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" t="s">
         <v>156</v>
@@ -4873,7 +4876,7 @@
         <v>155</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
         <v>156</v>
@@ -4899,7 +4902,7 @@
         <v>155</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" t="s">
         <v>156</v>
@@ -4925,7 +4928,7 @@
         <v>155</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
         <v>156</v>
@@ -4951,7 +4954,7 @@
         <v>155</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
         <v>156</v>
@@ -4977,7 +4980,7 @@
         <v>155</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" t="s">
         <v>156</v>
@@ -5003,7 +5006,7 @@
         <v>155</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D22" t="s">
         <v>156</v>
@@ -5029,7 +5032,7 @@
         <v>155</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -5055,7 +5058,7 @@
         <v>155</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
         <v>156</v>
@@ -5081,7 +5084,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -5673,7 +5676,7 @@
         <v>155</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H54" t="s">
         <v>222</v>
@@ -5699,7 +5702,7 @@
         <v>155</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H55" t="s">
         <v>222</v>
@@ -5724,8 +5727,8 @@
       <c r="G56" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>29</v>
+      <c r="H56" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -5747,8 +5750,8 @@
       <c r="G57" t="s">
         <v>227</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>29</v>
+      <c r="H57" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -5770,8 +5773,8 @@
       <c r="G58" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>29</v>
+      <c r="H58" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -5790,11 +5793,11 @@
       <c r="F59" t="s">
         <v>237</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>29</v>
+      <c r="H59" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -5872,8 +5875,8 @@
       <c r="G64" t="s">
         <v>226</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>29</v>
+      <c r="H64" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -5895,8 +5898,8 @@
       <c r="G65" t="s">
         <v>227</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>29</v>
+      <c r="H65" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -5906,20 +5909,20 @@
       <c r="B66" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>29</v>
+      <c r="D66" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="F66" t="s">
         <v>241</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>29</v>
+      <c r="H66" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -5929,20 +5932,20 @@
       <c r="B67" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>29</v>
+      <c r="D67" t="s">
+        <v>194</v>
       </c>
       <c r="F67" t="s">
         <v>237</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>29</v>
+      <c r="H67" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +5960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6013,7 +6016,7 @@
         <v>155</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
@@ -6036,7 +6039,7 @@
         <v>155</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -6136,7 +6139,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>235</v>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>235</v>
@@ -6174,7 +6177,7 @@
         <v>155</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>29</v>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
         <v>235</v>
@@ -6197,7 +6200,7 @@
         <v>155</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>29</v>
@@ -6211,11 +6214,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6264,8 +6267,8 @@
       <c r="C2" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>255</v>
@@ -6273,8 +6276,8 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>29</v>
+      <c r="H2" s="12" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -6287,17 +6290,17 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
+      <c r="D3" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -6310,17 +6313,17 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
+      <c r="D4" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -6333,17 +6336,17 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
+      <c r="D5" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -6356,17 +6359,17 @@
       <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
+      <c r="D6" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -6379,218 +6382,8 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>6007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>6008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>6009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>6011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>6012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>6013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>6014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>6015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>6016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>6017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>6019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>6021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>6022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>6023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>6024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>6025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>6026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>6027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>6028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>6029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>6030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>6031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>6032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>6033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>6034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>6035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>6036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>6037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>6038</v>
+      <c r="D7" s="12" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -6649,22 +6442,22 @@
         <v>7101</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -6672,22 +6465,22 @@
         <v>7102</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -6695,22 +6488,22 @@
         <v>7103</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -6718,22 +6511,22 @@
         <v>7104</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -6741,22 +6534,22 @@
         <v>7105</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -6764,22 +6557,22 @@
         <v>7106</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -6787,22 +6580,22 @@
         <v>7107</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -6810,22 +6603,22 @@
         <v>7108</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -6833,22 +6626,22 @@
         <v>7109</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -6856,13 +6649,13 @@
         <v>7110</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6870,13 +6663,13 @@
         <v>7111</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -6884,13 +6677,13 @@
         <v>7112</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -6898,13 +6691,13 @@
         <v>7113</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -6912,13 +6705,13 @@
         <v>7114</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -6926,13 +6719,13 @@
         <v>7115</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -6940,13 +6733,13 @@
         <v>7116</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -6954,13 +6747,13 @@
         <v>7117</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -6968,13 +6761,13 @@
         <v>7118</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -6982,13 +6775,13 @@
         <v>7119</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -6996,13 +6789,13 @@
         <v>7120</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -7010,22 +6803,22 @@
         <v>7121</v>
       </c>
       <c r="B22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" t="s">
         <v>258</v>
       </c>
-      <c r="C22" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" t="s">
-        <v>259</v>
-      </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -7033,22 +6826,22 @@
         <v>7122</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -7056,22 +6849,22 @@
         <v>7123</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" t="s">
         <v>261</v>
-      </c>
-      <c r="G24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H24" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -7079,22 +6872,22 @@
         <v>7124</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -7102,22 +6895,22 @@
         <v>7201</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -7125,22 +6918,22 @@
         <v>7202</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -7148,22 +6941,22 @@
         <v>7203</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F29" t="s">
         <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -7171,22 +6964,22 @@
         <v>7204</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F30" t="s">
         <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -7194,22 +6987,22 @@
         <v>7205</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -7217,22 +7010,22 @@
         <v>7206</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -7240,22 +7033,22 @@
         <v>7207</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -7263,22 +7056,22 @@
         <v>7301</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -7286,22 +7079,22 @@
         <v>7302</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F36" t="s">
         <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -7309,22 +7102,22 @@
         <v>7303</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F37" t="s">
         <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -7332,22 +7125,22 @@
         <v>7304</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
         <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -7355,22 +7148,22 @@
         <v>7305</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" t="s">
         <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -7378,13 +7171,13 @@
         <v>7306</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -7392,13 +7185,13 @@
         <v>7307</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -7406,22 +7199,22 @@
         <v>7401</v>
       </c>
       <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" t="s">
         <v>261</v>
-      </c>
-      <c r="C43" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" t="s">
-        <v>262</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -7429,22 +7222,22 @@
         <v>7402</v>
       </c>
       <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" t="s">
         <v>261</v>
       </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>262</v>
-      </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -7452,22 +7245,22 @@
         <v>7403</v>
       </c>
       <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" t="s">
         <v>261</v>
-      </c>
-      <c r="C45" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" t="s">
-        <v>262</v>
       </c>
       <c r="F45" t="s">
         <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -7475,22 +7268,22 @@
         <v>7404</v>
       </c>
       <c r="B46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" t="s">
         <v>261</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" t="s">
-        <v>262</v>
       </c>
       <c r="F46" t="s">
         <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7498,13 +7291,13 @@
         <v>7405</v>
       </c>
       <c r="B47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" t="s">
         <v>261</v>
-      </c>
-      <c r="C47" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7512,13 +7305,13 @@
         <v>7406</v>
       </c>
       <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" t="s">
         <v>261</v>
-      </c>
-      <c r="C48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D48" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7526,13 +7319,13 @@
         <v>7407</v>
       </c>
       <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" t="s">
         <v>261</v>
-      </c>
-      <c r="C49" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7594,19 +7387,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
         <v>298</v>
       </c>
-      <c r="G2" t="s">
-        <v>299</v>
-      </c>
       <c r="H2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7617,19 +7410,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -7640,19 +7433,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -7663,19 +7456,19 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">
@@ -7743,16 +7536,16 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
         <v>305</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
       </c>
       <c r="G2" t="s">
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7760,22 +7553,22 @@
         <v>9002</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
         <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="369">
   <si>
     <t>Cable#</t>
   </si>
@@ -6216,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
@@ -6396,9 +6396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6517,15 +6517,6 @@
         <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" t="s">
         <v>261</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="372">
   <si>
     <t>Cable#</t>
   </si>
@@ -1126,9 +1126,6 @@
     <t>A11</t>
   </si>
   <si>
-    <t>Steam 01</t>
-  </si>
-  <si>
     <t>A06</t>
   </si>
   <si>
@@ -1139,13 +1136,25 @@
   </si>
   <si>
     <t>Green Block</t>
+  </si>
+  <si>
+    <t>Cable #</t>
+  </si>
+  <si>
+    <t>Source / C#</t>
+  </si>
+  <si>
+    <t>VTR 03 Display</t>
+  </si>
+  <si>
+    <t>VTR 03 Hub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,6 +1186,20 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1255,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1281,6 +1304,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3840,7 +3873,7 @@
         <v>155</v>
       </c>
       <c r="G123" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
@@ -3864,7 +3897,7 @@
         <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H124" t="s">
         <v>8</v>
@@ -5913,7 +5946,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F66" t="s">
         <v>241</v>
@@ -5922,7 +5955,7 @@
         <v>6</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -6277,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -6291,7 +6324,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -6314,7 +6347,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -6337,7 +6370,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -6360,7 +6393,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -6383,7 +6416,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6394,11 +6427,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6411,7 +6444,7 @@
     <col min="7" max="8" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6437,76 +6470,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
         <v>7101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
         <v>7102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>7103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7104</v>
       </c>
@@ -6520,122 +6556,127 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
         <v>7105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>7106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
         <v>7107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
         <v>7108</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
         <v>7109</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F10" t="s">
-        <v>364</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7110</v>
       </c>
@@ -6649,7 +6690,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7111</v>
       </c>
@@ -6663,7 +6704,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>7112</v>
       </c>
@@ -6677,7 +6718,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7113</v>
       </c>
@@ -6691,7 +6732,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7114</v>
       </c>
@@ -6705,7 +6746,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7115</v>
       </c>
@@ -6718,8 +6759,11 @@
       <c r="D16" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>7116</v>
       </c>
@@ -6732,8 +6776,11 @@
       <c r="D17" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>7117</v>
       </c>
@@ -6746,8 +6793,11 @@
       <c r="D18" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7118</v>
       </c>
@@ -6761,7 +6811,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>7119</v>
       </c>
@@ -6775,7 +6825,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>7120</v>
       </c>
@@ -6789,99 +6839,103 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
         <v>7121</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
         <v>7122</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
         <v>7123</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
         <v>7124</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>7201</v>
       </c>
@@ -6904,7 +6958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>7202</v>
       </c>
@@ -6927,7 +6981,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7203</v>
       </c>
@@ -6950,7 +7004,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>7204</v>
       </c>
@@ -6973,7 +7027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>7205</v>
       </c>
@@ -6996,7 +7050,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>7206</v>
       </c>
@@ -7329,9 +7383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7459,6 +7513,52 @@
         <v>299</v>
       </c>
       <c r="H5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>8005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>8006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" t="s">
         <v>295</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="374">
   <si>
     <t>Cable#</t>
   </si>
@@ -1148,6 +1148,12 @@
   </si>
   <si>
     <t>VTR 03 Hub</t>
+  </si>
+  <si>
+    <t>VDA 03</t>
+  </si>
+  <si>
+    <t>Clock 01</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,72 +1645,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="H2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="H3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1863,7 +1872,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1902,184 +1911,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
         <v>2001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="H2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
         <v>2002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="H3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>2003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="H4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
         <v>2004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="H5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
         <v>2005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>2006</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="H7" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
         <v>2007</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="H8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
         <v>2008</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2268,26 +2277,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
         <v>2017</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="D18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2491,233 +2501,243 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
         <v>2031</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="D32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="H32" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
         <v>2032</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="D33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="H33" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
         <v>2033</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="H34" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
         <v>2034</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="D35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="H35" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
         <v>2035</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="D36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="H36" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
         <v>2036</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="D37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="H37" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
         <v>2037</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="D38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="H38" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
         <v>2038</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="H39" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
         <v>2039</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="H40" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
         <v>2040</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="D41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3855,442 +3875,459 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+    <row r="123" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="15">
         <v>2122</v>
       </c>
-      <c r="B123" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="8"/>
-      <c r="F123" t="s">
+      <c r="D123" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="H123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
+      <c r="H123" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="15">
         <v>2123</v>
       </c>
-      <c r="B124" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="8"/>
-      <c r="F124" t="s">
+      <c r="D124" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="17"/>
+      <c r="F124" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="H124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+      <c r="H124" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="15">
         <v>2124</v>
       </c>
-      <c r="B125" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="D125" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+      <c r="H125" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="15">
         <v>2125</v>
       </c>
-      <c r="B126" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D126" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="F126" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+      <c r="H126" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="15">
         <v>2126</v>
       </c>
-      <c r="B127" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="D127" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="F127" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
+      <c r="H127" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="15">
         <v>2127</v>
       </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="D128" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="F128" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+      <c r="H128" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="15">
         <v>2128</v>
       </c>
-      <c r="B129" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="D129" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+      <c r="H129" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="15">
         <v>2129</v>
       </c>
-      <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="D130" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="17"/>
+      <c r="F130" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+      <c r="H130" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="15">
         <v>2130</v>
       </c>
-      <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B131" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="D131" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+      <c r="H131" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="15">
         <v>2131</v>
       </c>
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B132" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="D132" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
+      <c r="H132" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="15">
         <v>2132</v>
       </c>
-      <c r="B133" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B133" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="D133" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
+      <c r="H133" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="15">
         <v>2133</v>
       </c>
-      <c r="B134" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B134" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="D134" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="17"/>
+      <c r="F134" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
+      <c r="H134" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="15">
         <v>2134</v>
       </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B135" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="D135" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="17"/>
+      <c r="F135" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
+      <c r="H135" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="15">
         <v>2135</v>
       </c>
-      <c r="B136" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B136" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="D136" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="17"/>
+      <c r="F136" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
+      <c r="H136" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="15">
         <v>2136</v>
       </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B137" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D137" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="D137" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="17"/>
+      <c r="F137" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
+      <c r="H137" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="15">
         <v>2137</v>
       </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B138" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="D138" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="17"/>
+      <c r="F138" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+      <c r="H138" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="15">
         <v>2138</v>
       </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B139" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="D139" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="17"/>
+      <c r="F139" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+      <c r="H139" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="15">
         <v>2139</v>
       </c>
-      <c r="B140" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="D140" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="17"/>
+      <c r="F140" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+      <c r="H140" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="15">
         <v>2140</v>
       </c>
-      <c r="B141" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="D141" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="17"/>
+      <c r="F141" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4306,7 +4343,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4359,7 +4396,7 @@
         <v>192</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>6</v>
@@ -4372,8 +4409,8 @@
       <c r="A3" s="1">
         <v>3001</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
+      <c r="B3" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4395,8 +4432,8 @@
       <c r="A4" s="1">
         <v>3002</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="B4" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4418,8 +4455,8 @@
       <c r="A5" s="1">
         <v>3003</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
+      <c r="B5" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -4441,8 +4478,8 @@
       <c r="A6" s="1">
         <v>3004</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="B6" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -6251,7 +6288,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6418,6 +6455,15 @@
       <c r="D7" s="12" t="s">
         <v>367</v>
       </c>
+      <c r="F7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6429,9 +6475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6555,6 +6601,15 @@
       <c r="D5" t="s">
         <v>261</v>
       </c>
+      <c r="F5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
@@ -7084,15 +7139,6 @@
         <v>268</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" t="s">
-        <v>361</v>
-      </c>
-      <c r="G33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7383,9 +7429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7447,26 +7493,27 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
         <v>8002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="16" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7493,26 +7540,27 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
         <v>8004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="16" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7539,26 +7587,27 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>8006</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="16" t="s">
         <v>295</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Dwen\Dropbox\SouthSeas Upgrade 2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,20 @@
     <sheet name="8-KVM" sheetId="8" r:id="rId8"/>
     <sheet name="9-HDMI" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="384">
   <si>
     <t>Cable#</t>
   </si>
@@ -1154,13 +1157,43 @@
   </si>
   <si>
     <t>Clock 01</t>
+  </si>
+  <si>
+    <t>O/P 1 L</t>
+  </si>
+  <si>
+    <t>O/P  1 R</t>
+  </si>
+  <si>
+    <t>O/P 2 L</t>
+  </si>
+  <si>
+    <t>O/P 2 R</t>
+  </si>
+  <si>
+    <t>O/P 3 L</t>
+  </si>
+  <si>
+    <t>O/P 3 R</t>
+  </si>
+  <si>
+    <t>O/P 4 L</t>
+  </si>
+  <si>
+    <t>O/P R R</t>
+  </si>
+  <si>
+    <t>O/P 5 L</t>
+  </si>
+  <si>
+    <t>O/P 5 R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,13 +1224,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1206,6 +1232,22 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1232,14 +1274,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1248,20 +1290,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1269,22 +1311,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1296,20 +1342,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1317,13 +1359,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1382,7 +1424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1417,7 +1459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,21 +1644,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1645,190 +1690,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
         <v>1001</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>1002</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>1003</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>1004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>1005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>1006</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="H7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>1007</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="H8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
         <v>1008</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1837,32 +1887,38 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
         <v>1010</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1871,18 +1927,18 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1911,393 +1967,400 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
         <v>2001</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="H7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="H8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="H11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="H12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="H13" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="H14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="H15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="H16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+      <c r="H17" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2501,266 +2564,267 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
         <v>2031</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="D32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15">
+      <c r="H32" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
         <v>2032</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="D33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
+      <c r="H33" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
         <v>2033</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="16" t="s">
+      <c r="D34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
+      <c r="H34" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
         <v>2034</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="D35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="H35" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
         <v>2035</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="16" t="s">
+      <c r="D36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15">
+      <c r="H36" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
         <v>2036</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="D37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15">
+      <c r="H37" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
         <v>2037</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="16" t="s">
+      <c r="D38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15">
+      <c r="H38" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
         <v>2038</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="16" t="s">
+      <c r="D39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15">
+      <c r="H39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
         <v>2039</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="D40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15">
+      <c r="H40" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <v>2040</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="D41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="H41" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
         <v>2041</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2810,27 +2874,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
         <v>2044</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" t="s">
+      <c r="D45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2864,133 +2928,133 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
         <v>2051</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="H52" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
         <v>2052</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="H53" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10">
         <v>2053</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="D54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="H54" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10">
         <v>2054</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="D55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="H55" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10">
         <v>2055</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="D56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3007,7 +3071,7 @@
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -3022,7 +3086,7 @@
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -3075,95 +3139,99 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10">
         <v>2061</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="H62" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="10">
         <v>2062</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="D63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="H63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="H63" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10">
         <v>2063</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="H64" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="10">
         <v>2064</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3530,118 +3598,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+    <row r="108" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="10">
         <v>2107</v>
       </c>
-      <c r="B108" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="D108" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+      <c r="H108" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="10">
         <v>2108</v>
       </c>
-      <c r="B109" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="D109" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="H109" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="10">
         <v>2109</v>
       </c>
-      <c r="B110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="D110" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+      <c r="H110" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="10">
         <v>2110</v>
       </c>
-      <c r="B111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="D111" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+      <c r="H111" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="10">
         <v>2111</v>
       </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3760,600 +3833,613 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+    <row r="118" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="10">
         <v>2117</v>
       </c>
-      <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="D118" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+      <c r="H118" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="10">
         <v>2118</v>
       </c>
-      <c r="B119" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="D119" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+      <c r="H119" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="10">
         <v>2119</v>
       </c>
-      <c r="B120" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="D120" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+      <c r="H120" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="10">
         <v>2120</v>
       </c>
-      <c r="B121" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="10" t="s">
+      <c r="D121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H121" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+      <c r="H121" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="10">
         <v>2121</v>
       </c>
-      <c r="B122" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="15">
+      <c r="H122" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="10">
         <v>2122</v>
       </c>
-      <c r="B123" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="16" t="s">
+      <c r="B123" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="17"/>
-      <c r="F123" s="16" t="s">
+      <c r="D123" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="H123" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="15">
+      <c r="H123" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="10">
         <v>2123</v>
       </c>
-      <c r="B124" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="16" t="s">
+      <c r="B124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="17"/>
-      <c r="F124" s="16" t="s">
+      <c r="D124" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="F124" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G124" s="16" t="s">
+      <c r="G124" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="H124" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="15">
+      <c r="H124" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="10">
         <v>2124</v>
       </c>
-      <c r="B125" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="16" t="s">
+      <c r="B125" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D125" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="17"/>
-      <c r="F125" s="16" t="s">
+      <c r="D125" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="16" t="s">
+      <c r="G125" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H125" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="15">
+      <c r="H125" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="10">
         <v>2125</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="16" t="s">
+      <c r="B126" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="17"/>
-      <c r="F126" s="16" t="s">
+      <c r="D126" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G126" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H126" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="15">
+      <c r="H126" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="10">
         <v>2126</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="16" t="s">
+      <c r="B127" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="17"/>
-      <c r="F127" s="16" t="s">
+      <c r="D127" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H127" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="15">
+      <c r="H127" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="10">
         <v>2127</v>
       </c>
-      <c r="B128" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="16" t="s">
+      <c r="B128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="17"/>
-      <c r="F128" s="16" t="s">
+      <c r="D128" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G128" s="16" t="s">
+      <c r="G128" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="15">
+      <c r="H128" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="10">
         <v>2128</v>
       </c>
-      <c r="B129" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="16" t="s">
+      <c r="B129" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D129" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="17"/>
-      <c r="F129" s="16" t="s">
+      <c r="D129" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G129" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H129" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="15">
+      <c r="H129" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="10">
         <v>2129</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="16" t="s">
+      <c r="B130" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="17"/>
-      <c r="F130" s="16" t="s">
+      <c r="D130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="F130" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G130" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H130" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="15">
+      <c r="H130" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="10">
         <v>2130</v>
       </c>
-      <c r="B131" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="16" t="s">
+      <c r="B131" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="16" t="s">
+      <c r="D131" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="15">
+      <c r="H131" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="10">
         <v>2131</v>
       </c>
-      <c r="B132" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="16" t="s">
+      <c r="B132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="17"/>
-      <c r="F132" s="16" t="s">
+      <c r="D132" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G132" s="16" t="s">
+      <c r="G132" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H132" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="15">
+      <c r="H132" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="10">
         <v>2132</v>
       </c>
-      <c r="B133" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="16" t="s">
+      <c r="B133" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D133" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="17"/>
-      <c r="F133" s="16" t="s">
+      <c r="D133" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G133" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="15">
+      <c r="H133" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="10">
         <v>2133</v>
       </c>
-      <c r="B134" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="16" t="s">
+      <c r="B134" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D134" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="17"/>
-      <c r="F134" s="16" t="s">
+      <c r="D134" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G134" s="16" t="s">
+      <c r="G134" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H134" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="15">
+      <c r="H134" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="10">
         <v>2134</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="16" t="s">
+      <c r="B135" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D135" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="17"/>
-      <c r="F135" s="16" t="s">
+      <c r="D135" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G135" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H135" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="15">
+      <c r="H135" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="10">
         <v>2135</v>
       </c>
-      <c r="B136" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="16" t="s">
+      <c r="B136" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="16" t="s">
+      <c r="D136" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="16" t="s">
+      <c r="G136" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="15">
+      <c r="H136" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="10">
         <v>2136</v>
       </c>
-      <c r="B137" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="16" t="s">
+      <c r="B137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="16" t="s">
+      <c r="D137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G137" s="16" t="s">
+      <c r="G137" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H137" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="15">
+      <c r="H137" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="10">
         <v>2137</v>
       </c>
-      <c r="B138" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="16" t="s">
+      <c r="B138" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D138" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="16" t="s">
+      <c r="D138" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G138" s="16" t="s">
+      <c r="G138" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H138" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="15">
+      <c r="H138" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="10">
         <v>2138</v>
       </c>
-      <c r="B139" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="B139" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D139" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="17"/>
-      <c r="F139" s="16" t="s">
+      <c r="D139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="16" t="s">
+      <c r="G139" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H139" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="15">
+      <c r="H139" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="10">
         <v>2139</v>
       </c>
-      <c r="B140" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="16" t="s">
+      <c r="B140" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D140" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="17"/>
-      <c r="F140" s="16" t="s">
+      <c r="D140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G140" s="16" t="s">
+      <c r="G140" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H140" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="15">
+      <c r="H140" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="10">
         <v>2140</v>
       </c>
-      <c r="B141" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="16" t="s">
+      <c r="B141" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="17"/>
-      <c r="F141" s="16" t="s">
+      <c r="D141" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="12"/>
+      <c r="F141" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="H141" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4382,124 +4468,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
         <v>3000</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="H2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>3001</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>3002</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>3003</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>3004</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4508,18 +4604,18 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -4555,7 +4651,7 @@
       <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>327</v>
       </c>
       <c r="D2" t="s">
@@ -4581,7 +4677,7 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>328</v>
       </c>
       <c r="D3" t="s">
@@ -4607,7 +4703,7 @@
       <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>329</v>
       </c>
       <c r="D4" t="s">
@@ -4633,7 +4729,7 @@
       <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>330</v>
       </c>
       <c r="D5" t="s">
@@ -4659,7 +4755,7 @@
       <c r="B6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>331</v>
       </c>
       <c r="D6" t="s">
@@ -4685,7 +4781,7 @@
       <c r="B7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>332</v>
       </c>
       <c r="D7" t="s">
@@ -4711,7 +4807,7 @@
       <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>333</v>
       </c>
       <c r="D8" t="s">
@@ -4737,7 +4833,7 @@
       <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>334</v>
       </c>
       <c r="D9" t="s">
@@ -4763,7 +4859,7 @@
       <c r="B10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>335</v>
       </c>
       <c r="D10" t="s">
@@ -4789,7 +4885,7 @@
       <c r="B11" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>336</v>
       </c>
       <c r="D11" t="s">
@@ -4815,7 +4911,7 @@
       <c r="B12" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>337</v>
       </c>
       <c r="D12" t="s">
@@ -4841,7 +4937,7 @@
       <c r="B13" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>338</v>
       </c>
       <c r="D13" t="s">
@@ -4867,7 +4963,7 @@
       <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>339</v>
       </c>
       <c r="D14" t="s">
@@ -4893,7 +4989,7 @@
       <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>340</v>
       </c>
       <c r="D15" t="s">
@@ -4919,7 +5015,7 @@
       <c r="B16" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>341</v>
       </c>
       <c r="D16" t="s">
@@ -4945,7 +5041,7 @@
       <c r="B17" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>342</v>
       </c>
       <c r="D17" t="s">
@@ -4971,7 +5067,7 @@
       <c r="B18" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>343</v>
       </c>
       <c r="D18" t="s">
@@ -4997,7 +5093,7 @@
       <c r="B19" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>344</v>
       </c>
       <c r="D19" t="s">
@@ -5023,7 +5119,7 @@
       <c r="B20" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>345</v>
       </c>
       <c r="D20" t="s">
@@ -5049,7 +5145,7 @@
       <c r="B21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="8" t="s">
         <v>346</v>
       </c>
       <c r="D21" t="s">
@@ -5075,7 +5171,7 @@
       <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="8" t="s">
         <v>347</v>
       </c>
       <c r="D22" t="s">
@@ -5101,7 +5197,7 @@
       <c r="B23" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D23" t="s">
@@ -5127,7 +5223,7 @@
       <c r="B24" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>349</v>
       </c>
       <c r="D24" t="s">
@@ -5153,7 +5249,7 @@
       <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="8" t="s">
         <v>350</v>
       </c>
       <c r="D25" t="s">
@@ -5179,7 +5275,7 @@
       <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D26" t="s">
@@ -5202,7 +5298,7 @@
       <c r="B27" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D27" t="s">
@@ -5225,7 +5321,7 @@
       <c r="B28" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D28" t="s">
@@ -5248,7 +5344,7 @@
       <c r="B29" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D29" t="s">
@@ -5271,7 +5367,7 @@
       <c r="B30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D30" t="s">
@@ -5294,7 +5390,7 @@
       <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D31" t="s">
@@ -5317,7 +5413,7 @@
       <c r="B32" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D32" t="s">
@@ -5340,7 +5436,7 @@
       <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D33" t="s">
@@ -5363,7 +5459,7 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D34" t="s">
@@ -5386,7 +5482,7 @@
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D35" t="s">
@@ -5437,7 +5533,7 @@
       <c r="B38" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D38" t="s">
@@ -5460,7 +5556,7 @@
       <c r="B39" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D39" t="s">
@@ -5745,7 +5841,7 @@
       <c r="F54" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="8" t="s">
         <v>351</v>
       </c>
       <c r="H54" t="s">
@@ -5771,7 +5867,7 @@
       <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="8" t="s">
         <v>352</v>
       </c>
       <c r="H55" t="s">
@@ -5797,7 +5893,7 @@
       <c r="G56" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5820,7 +5916,7 @@
       <c r="G57" t="s">
         <v>227</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5840,10 +5936,10 @@
       <c r="F58" t="s">
         <v>235</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5863,10 +5959,10 @@
       <c r="F59" t="s">
         <v>237</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="8" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5945,7 +6041,7 @@
       <c r="G64" t="s">
         <v>226</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5968,7 +6064,7 @@
       <c r="G65" t="s">
         <v>227</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5979,19 +6075,19 @@
       <c r="B66" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="8" t="s">
         <v>366</v>
       </c>
       <c r="F66" t="s">
         <v>241</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="H66" s="8" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6002,7 +6098,7 @@
       <c r="B67" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D67" t="s">
@@ -6011,16 +6107,21 @@
       <c r="F67" t="s">
         <v>237</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="8" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6030,17 +6131,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6070,7 +6171,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B2" t="s">
@@ -6079,13 +6180,13 @@
       <c r="C2" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
+      <c r="D2" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>353</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -6093,7 +6194,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B3" t="s">
@@ -6102,13 +6203,13 @@
       <c r="C3" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
+      <c r="D3" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>354</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -6116,7 +6217,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>244</v>
       </c>
       <c r="B4" t="s">
@@ -6125,8 +6226,8 @@
       <c r="C4" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
+      <c r="D4" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>245</v>
@@ -6139,7 +6240,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>246</v>
       </c>
       <c r="B5" t="s">
@@ -6148,17 +6249,17 @@
       <c r="C5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
+      <c r="D5" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
+      <c r="H5" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -6171,17 +6272,17 @@
       <c r="C6" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
+      <c r="D6" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
+      <c r="H6" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -6194,21 +6295,21 @@
       <c r="C7" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
+      <c r="D7" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F7" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
+      <c r="H7" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>355</v>
       </c>
       <c r="B8" t="s">
@@ -6217,21 +6318,21 @@
       <c r="C8" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
+      <c r="D8" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F8" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>29</v>
+      <c r="H8" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>356</v>
       </c>
       <c r="B9" t="s">
@@ -6240,13 +6341,13 @@
       <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
+      <c r="D9" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>358</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -6254,7 +6355,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>357</v>
       </c>
       <c r="B10" t="s">
@@ -6263,13 +6364,13 @@
       <c r="C10" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
+      <c r="D10" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>359</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -6278,27 +6379,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6327,26 +6433,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
         <v>6000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6358,9 +6465,9 @@
         <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F3" t="s">
@@ -6369,7 +6476,7 @@
       <c r="G3" t="s">
         <v>256</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6381,18 +6488,18 @@
         <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6404,18 +6511,18 @@
         <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>256</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6427,18 +6534,18 @@
         <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6450,9 +6557,9 @@
         <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F7" t="s">
@@ -6461,13 +6568,88 @@
       <c r="G7" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>8</v>
+      <c r="H7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>6007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>6009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>6010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6475,19 +6657,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -6516,218 +6698,219 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
         <v>7101</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>7102</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>7103</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>7104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>7105</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>7106</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>7107</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
         <v>7108</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>7109</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6894,396 +7077,410 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <v>7121</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+    <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
         <v>7122</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
         <v>7123</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
         <v>7124</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <v>7201</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
         <v>7202</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
         <v>7203</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
         <v>7204</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
         <v>7205</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
         <v>7206</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
         <v>7207</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
         <v>7301</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
         <v>7302</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
         <v>7303</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
         <v>7304</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
         <v>7305</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
         <v>7306</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <v>7307</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="11" t="s">
         <v>261</v>
       </c>
+      <c r="E41" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
@@ -7421,27 +7618,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -7470,144 +7675,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
         <v>8001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>8002</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>8003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
         <v>8004</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>8005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>8006</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="11" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7616,27 +7824,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -7665,49 +7881,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
         <v>9001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
         <v>9002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="11" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7716,6 +7934,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="8-KVM" sheetId="8" r:id="rId8"/>
     <sheet name="9-HDMI" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="383">
   <si>
     <t>Cable#</t>
   </si>
@@ -775,9 +775,6 @@
     <t>Coms TX/RX</t>
   </si>
   <si>
-    <t>5001D</t>
-  </si>
-  <si>
     <t>CCU/VT Panel</t>
   </si>
   <si>
@@ -1096,27 +1093,12 @@
     <t>D16</t>
   </si>
   <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
     <t>5004A</t>
   </si>
   <si>
     <t>5004B</t>
   </si>
   <si>
-    <t>5004C</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
     <t>I/O 43</t>
   </si>
   <si>
@@ -1187,6 +1169,21 @@
   </si>
   <si>
     <t>O/P 5 R</t>
+  </si>
+  <si>
+    <t>5001B</t>
+  </si>
+  <si>
+    <t>XLR-JF-M</t>
+  </si>
+  <si>
+    <t>E15/16</t>
+  </si>
+  <si>
+    <t>E09/10/11/12</t>
+  </si>
+  <si>
+    <t>XLR-JF-M, XLR-JF-F</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1327,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1342,9 +1339,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1690,195 +1684,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>1002</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>1003</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
         <v>1004</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>1005</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>1006</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="H7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
         <v>1007</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="H8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
         <v>1008</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1887,27 +1881,27 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
         <v>1010</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1924,11 +1918,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1967,934 +1964,949 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>2001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2006</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2007</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2008</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2020</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2021</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2022</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2026</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2027</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2028</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2029</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2031</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2032</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2033</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2034</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2035</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2036</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2037</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>2038</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>2039</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>2040</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>2041</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>2006</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>2007</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2008</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="H42" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>2042</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
+        <v>2043</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>2044</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>2025</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>2026</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2027</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>2028</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>2031</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <v>2032</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
-        <v>2033</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
-        <v>2034</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10">
-        <v>2035</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10">
-        <v>2036</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
-        <v>2037</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
-        <v>2038</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
-        <v>2039</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10">
-        <v>2040</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10">
-        <v>2041</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>2042</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>2043</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10">
-        <v>2044</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2928,186 +2940,187 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10">
+    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
         <v>2051</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>2052</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="F53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10">
-        <v>2052</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="H53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>2053</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="C54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="F54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10">
-        <v>2053</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="H54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>2054</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="C55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="F55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10">
-        <v>2054</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="H55" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>2055</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="C56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="F56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10">
-        <v>2055</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="H56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>2056</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>2056</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9">
+        <v>2057</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>2057</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>2058</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>2058</v>
-      </c>
-      <c r="B59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C59" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="D59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3116,194 +3129,200 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
         <v>2060</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="D61" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="10">
+      <c r="H61" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
         <v>2061</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G62" s="11" t="s">
+      <c r="D62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="10">
+      <c r="H62" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
         <v>2062</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="11" t="s">
+      <c r="D63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>2063</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10">
-        <v>2063</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="H64" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>2064</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="11" t="s">
+      <c r="C65" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10">
-        <v>2064</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="G65" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>2065</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>2065</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>2066</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>2066</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9">
+        <v>2067</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>2067</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>2068</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>2068</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>2069</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>2069</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="C70" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
+      <c r="D70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -3460,952 +3479,963 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+    <row r="102" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="9">
         <v>2101</v>
       </c>
-      <c r="B102" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="D102" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="H102" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="9">
         <v>2102</v>
       </c>
-      <c r="B103" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="D103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="H103" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="9">
         <v>2103</v>
       </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="D104" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+      <c r="H104" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="9">
         <v>2104</v>
       </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="D105" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+      <c r="H105" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="9">
         <v>2105</v>
       </c>
-      <c r="B106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="D106" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="H106" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="9">
         <v>2106</v>
       </c>
-      <c r="B107" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="D107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="11"/>
+      <c r="F107" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="10">
+      <c r="H107" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="9">
         <v>2107</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="11" t="s">
+      <c r="B108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="11" t="s">
+      <c r="D108" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H108" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="10">
+      <c r="H108" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="9">
         <v>2108</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="11" t="s">
+      <c r="B109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="11" t="s">
+      <c r="D109" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="11"/>
+      <c r="F109" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="10">
+      <c r="H109" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="9">
         <v>2109</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="B110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="11" t="s">
+      <c r="D110" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G110" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H110" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="10">
+      <c r="H110" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="9">
         <v>2110</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="11" t="s">
+      <c r="B111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="11" t="s">
+      <c r="D111" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="11"/>
+      <c r="F111" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G111" s="11" t="s">
+      <c r="G111" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="10">
+      <c r="H111" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="9">
         <v>2111</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="B112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="11" t="s">
+      <c r="D112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G112" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+      <c r="H112" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="9">
         <v>2112</v>
       </c>
-      <c r="B113" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="D113" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+      <c r="H113" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="9">
         <v>2113</v>
       </c>
-      <c r="B114" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="D114" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+      <c r="H114" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="9">
         <v>2114</v>
       </c>
-      <c r="B115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="D115" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
+      <c r="H115" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="9">
         <v>2115</v>
       </c>
-      <c r="B116" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="D116" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+      <c r="H116" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="9">
         <v>2116</v>
       </c>
-      <c r="B117" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="D117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="10">
+      <c r="H117" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="9">
         <v>2117</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="11" t="s">
+      <c r="B118" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="11" t="s">
+      <c r="D118" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="10">
+      <c r="H118" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="9">
         <v>2118</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="B119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="11" t="s">
+      <c r="D119" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="10">
+      <c r="H119" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="9">
         <v>2119</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="B120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="11" t="s">
+      <c r="D120" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="11"/>
+      <c r="F120" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="10">
+      <c r="H120" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="9">
         <v>2120</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="11" t="s">
+      <c r="B121" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="11" t="s">
+      <c r="D121" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="10">
+      <c r="H121" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="9">
         <v>2121</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="11" t="s">
+      <c r="D122" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="10">
+      <c r="H122" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="9">
         <v>2122</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="11" t="s">
+      <c r="B123" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="11" t="s">
+      <c r="D123" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G123" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="10">
+      <c r="G123" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="9">
         <v>2123</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="B124" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="11" t="s">
+      <c r="D124" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G124" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="10">
+      <c r="G124" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="9">
         <v>2124</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="11" t="s">
+      <c r="B125" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="11" t="s">
+      <c r="D125" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="10">
+      <c r="H125" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="9">
         <v>2125</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="11" t="s">
+      <c r="B126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="11" t="s">
+      <c r="D126" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="11" t="s">
+      <c r="G126" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="10">
+      <c r="H126" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="9">
         <v>2126</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="11" t="s">
+      <c r="D127" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G127" s="11" t="s">
+      <c r="G127" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="10">
+      <c r="H127" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="9">
         <v>2127</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="11" t="s">
+      <c r="B128" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="11" t="s">
+      <c r="D128" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="G128" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="10">
+      <c r="H128" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="9">
         <v>2128</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="11" t="s">
+      <c r="B129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="11" t="s">
+      <c r="D129" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G129" s="11" t="s">
+      <c r="G129" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H129" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="10">
+      <c r="H129" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="9">
         <v>2129</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="11" t="s">
+      <c r="B130" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="11" t="s">
+      <c r="D130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="10">
+      <c r="H130" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="9">
         <v>2130</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="11" t="s">
+      <c r="B131" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="11" t="s">
+      <c r="D131" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="11"/>
+      <c r="F131" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="10">
+      <c r="H131" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="9">
         <v>2131</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="B132" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="11" t="s">
+      <c r="D132" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="10">
+      <c r="H132" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="9">
         <v>2132</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="12"/>
-      <c r="F133" s="11" t="s">
+      <c r="D133" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="10">
+      <c r="H133" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="9">
         <v>2133</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="11" t="s">
+      <c r="B134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="11" t="s">
+      <c r="D134" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H134" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="10">
+      <c r="H134" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="9">
         <v>2134</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="11" t="s">
+      <c r="B135" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="12"/>
-      <c r="F135" s="11" t="s">
+      <c r="D135" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="10">
+      <c r="H135" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="9">
         <v>2135</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="11" t="s">
+      <c r="B136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="11" t="s">
+      <c r="D136" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="G136" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="10">
+      <c r="H136" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="9">
         <v>2136</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="11" t="s">
+      <c r="D137" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G137" s="11" t="s">
+      <c r="G137" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H137" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="10">
+      <c r="H137" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="9">
         <v>2137</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="11" t="s">
+      <c r="D138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G138" s="11" t="s">
+      <c r="G138" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="10">
+      <c r="H138" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="9">
         <v>2138</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="11" t="s">
+      <c r="B139" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="11" t="s">
+      <c r="D139" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="11" t="s">
+      <c r="G139" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="10">
+      <c r="H139" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="9">
         <v>2139</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="11" t="s">
+      <c r="B140" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="11" t="s">
+      <c r="D140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="11"/>
+      <c r="F140" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G140" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H140" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="10">
+      <c r="H140" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="9">
         <v>2140</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="11" t="s">
+      <c r="B141" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="11" t="s">
+      <c r="D141" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G141" s="11" t="s">
+      <c r="G141" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H141" s="11" t="s">
+      <c r="H141" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4468,123 +4498,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>3000</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="H2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>3001</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>3002</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3003</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>3003</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>3004</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>3004</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4604,8 +4634,8 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4651,8 +4681,8 @@
       <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>327</v>
+      <c r="C2" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="D2" t="s">
         <v>156</v>
@@ -4677,8 +4707,8 @@
       <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>328</v>
+      <c r="C3" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="D3" t="s">
         <v>156</v>
@@ -4703,8 +4733,8 @@
       <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>329</v>
+      <c r="C4" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="D4" t="s">
         <v>156</v>
@@ -4729,8 +4759,8 @@
       <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>330</v>
+      <c r="C5" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
@@ -4755,8 +4785,8 @@
       <c r="B6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>331</v>
+      <c r="C6" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D6" t="s">
         <v>156</v>
@@ -4781,8 +4811,8 @@
       <c r="B7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>332</v>
+      <c r="C7" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D7" t="s">
         <v>156</v>
@@ -4807,8 +4837,8 @@
       <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>333</v>
+      <c r="C8" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D8" t="s">
         <v>156</v>
@@ -4833,8 +4863,8 @@
       <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>334</v>
+      <c r="C9" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="D9" t="s">
         <v>156</v>
@@ -4859,8 +4889,8 @@
       <c r="B10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>335</v>
+      <c r="C10" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D10" t="s">
         <v>156</v>
@@ -4885,8 +4915,8 @@
       <c r="B11" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>336</v>
+      <c r="C11" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D11" t="s">
         <v>156</v>
@@ -4911,8 +4941,8 @@
       <c r="B12" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>337</v>
+      <c r="C12" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D12" t="s">
         <v>156</v>
@@ -4937,8 +4967,8 @@
       <c r="B13" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>338</v>
+      <c r="C13" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D13" t="s">
         <v>156</v>
@@ -4963,8 +4993,8 @@
       <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>339</v>
+      <c r="C14" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D14" t="s">
         <v>156</v>
@@ -4989,8 +5019,8 @@
       <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>340</v>
+      <c r="C15" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="D15" t="s">
         <v>156</v>
@@ -5015,8 +5045,8 @@
       <c r="B16" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>341</v>
+      <c r="C16" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="D16" t="s">
         <v>156</v>
@@ -5041,8 +5071,8 @@
       <c r="B17" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>342</v>
+      <c r="C17" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="D17" t="s">
         <v>156</v>
@@ -5067,8 +5097,8 @@
       <c r="B18" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>343</v>
+      <c r="C18" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="D18" t="s">
         <v>156</v>
@@ -5093,8 +5123,8 @@
       <c r="B19" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>344</v>
+      <c r="C19" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="D19" t="s">
         <v>156</v>
@@ -5119,8 +5149,8 @@
       <c r="B20" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>345</v>
+      <c r="C20" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="D20" t="s">
         <v>156</v>
@@ -5145,8 +5175,8 @@
       <c r="B21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>346</v>
+      <c r="C21" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="D21" t="s">
         <v>156</v>
@@ -5171,8 +5201,8 @@
       <c r="B22" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>347</v>
+      <c r="C22" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="D22" t="s">
         <v>156</v>
@@ -5197,8 +5227,8 @@
       <c r="B23" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>348</v>
+      <c r="C23" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -5223,8 +5253,8 @@
       <c r="B24" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>349</v>
+      <c r="C24" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="D24" t="s">
         <v>156</v>
@@ -5249,8 +5279,8 @@
       <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>350</v>
+      <c r="C25" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -5275,7 +5305,7 @@
       <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D26" t="s">
@@ -5298,7 +5328,7 @@
       <c r="B27" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D27" t="s">
@@ -5321,7 +5351,7 @@
       <c r="B28" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D28" t="s">
@@ -5344,7 +5374,7 @@
       <c r="B29" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>184</v>
       </c>
       <c r="D29" t="s">
@@ -5367,7 +5397,7 @@
       <c r="B30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D30" t="s">
@@ -5390,7 +5420,7 @@
       <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D31" t="s">
@@ -5413,7 +5443,7 @@
       <c r="B32" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D32" t="s">
@@ -5436,7 +5466,7 @@
       <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>184</v>
       </c>
       <c r="D33" t="s">
@@ -5452,49 +5482,51 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
         <v>4033</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
         <v>4034</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="10" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5533,7 +5565,7 @@
       <c r="B38" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>197</v>
       </c>
       <c r="D38" t="s">
@@ -5556,7 +5588,7 @@
       <c r="B39" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>198</v>
       </c>
       <c r="D39" t="s">
@@ -5841,8 +5873,8 @@
       <c r="F54" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>351</v>
+      <c r="G54" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="H54" t="s">
         <v>222</v>
@@ -5867,8 +5899,8 @@
       <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>352</v>
+      <c r="G55" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="H55" t="s">
         <v>222</v>
@@ -5893,7 +5925,7 @@
       <c r="G56" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5916,7 +5948,7 @@
       <c r="G57" t="s">
         <v>227</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5936,33 +5968,34 @@
       <c r="F58" t="s">
         <v>235</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
         <v>4058</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="10" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6041,7 +6074,7 @@
       <c r="G64" t="s">
         <v>226</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6064,7 +6097,7 @@
       <c r="G65" t="s">
         <v>227</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6075,20 +6108,20 @@
       <c r="B66" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>366</v>
+      <c r="D66" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="F66" t="s">
         <v>241</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>366</v>
+      <c r="H66" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -6098,7 +6131,7 @@
       <c r="B67" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>242</v>
       </c>
       <c r="D67" t="s">
@@ -6107,10 +6140,10 @@
       <c r="F67" t="s">
         <v>237</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6127,11 +6160,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6171,77 +6204,77 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>353</v>
+        <v>245</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>243</v>
+      <c r="A3" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
+      <c r="G3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>246</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>246</v>
+      <c r="A5" s="1">
+        <v>5002</v>
       </c>
       <c r="B5" t="s">
         <v>235</v>
@@ -6249,22 +6282,22 @@
       <c r="C5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>154</v>
+      <c r="H5" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B6" t="s">
         <v>235</v>
@@ -6272,22 +6305,22 @@
       <c r="C6" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>194</v>
+      <c r="H6" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5003</v>
+      <c r="A7" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>235</v>
@@ -6295,91 +6328,45 @@
       <c r="C7" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>154</v>
+      <c r="H7" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>355</v>
+      <c r="A8" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>29</v>
+      <c r="G8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6392,9 +6379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F16"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6433,119 +6420,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>6000</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>6001</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>6001</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H3" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>6002</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>6002</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>6003</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="H5" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>6003</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>6004</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>6004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6554,21 +6545,21 @@
         <v>6005</v>
       </c>
       <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" t="s">
         <v>255</v>
       </c>
-      <c r="C7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6577,13 +6568,13 @@
         <v>6006</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>367</v>
+        <v>373</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -6591,13 +6582,13 @@
         <v>6007</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>367</v>
+        <v>374</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -6605,13 +6596,13 @@
         <v>6008</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>367</v>
+        <v>375</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -6619,13 +6610,13 @@
         <v>6009</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>367</v>
+        <v>376</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6633,13 +6624,13 @@
         <v>6010</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>367</v>
+        <v>377</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6698,220 +6689,220 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>7101</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>7102</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>7102</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>7103</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>7103</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>7104</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>7104</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>7105</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>7105</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>7106</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>7106</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7107</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>7107</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>7108</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>7108</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>7109</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>7109</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>261</v>
+      <c r="D10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -6919,13 +6910,13 @@
         <v>7110</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6933,13 +6924,13 @@
         <v>7111</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -6947,13 +6938,13 @@
         <v>7112</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -6961,13 +6952,13 @@
         <v>7113</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -6975,13 +6966,13 @@
         <v>7114</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -6989,16 +6980,16 @@
         <v>7115</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -7006,13 +6997,13 @@
         <v>7116</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K17" t="s">
         <v>5</v>
@@ -7023,16 +7014,16 @@
         <v>7117</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K18" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -7040,13 +7031,13 @@
         <v>7118</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -7054,13 +7045,13 @@
         <v>7119</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -7068,441 +7059,441 @@
         <v>7120</v>
       </c>
       <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>7121</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G22" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>7122</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>7123</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>7124</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>7201</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>7121</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="D27" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>7202</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>7203</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>7204</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>7205</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>7206</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>7207</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>7301</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11" t="s">
+      <c r="D35" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>7302</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>7122</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>7123</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11" t="s">
+      <c r="C36" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>7124</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>7201</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="H36" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>7303</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>7202</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="C37" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>7304</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>7203</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="C38" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>7305</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
-        <v>7204</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="C39" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>7306</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>7205</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="C40" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>7307</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>7206</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <v>7207</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
-        <v>7301</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10">
-        <v>7302</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10">
-        <v>7303</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
-        <v>7304</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
-        <v>7305</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
-        <v>7306</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10">
-        <v>7307</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E41" s="12"/>
+      <c r="D41" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>7401</v>
       </c>
       <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" t="s">
         <v>260</v>
-      </c>
-      <c r="C43" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" t="s">
-        <v>261</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -7510,22 +7501,22 @@
         <v>7402</v>
       </c>
       <c r="B44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" t="s">
         <v>260</v>
       </c>
-      <c r="C44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" t="s">
-        <v>261</v>
-      </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -7533,22 +7524,22 @@
         <v>7403</v>
       </c>
       <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" t="s">
         <v>260</v>
-      </c>
-      <c r="C45" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" t="s">
-        <v>261</v>
       </c>
       <c r="F45" t="s">
         <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -7556,22 +7547,22 @@
         <v>7404</v>
       </c>
       <c r="B46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" t="s">
         <v>260</v>
-      </c>
-      <c r="C46" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" t="s">
-        <v>261</v>
       </c>
       <c r="F46" t="s">
         <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7579,13 +7570,13 @@
         <v>7405</v>
       </c>
       <c r="B47" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" t="s">
         <v>260</v>
-      </c>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7593,13 +7584,13 @@
         <v>7406</v>
       </c>
       <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" t="s">
         <v>260</v>
-      </c>
-      <c r="C48" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7607,13 +7598,13 @@
         <v>7407</v>
       </c>
       <c r="B49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" t="s">
         <v>260</v>
-      </c>
-      <c r="C49" t="s">
-        <v>268</v>
-      </c>
-      <c r="D49" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7675,148 +7666,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>8001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>8002</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>8003</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H4" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>8004</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>8002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>8005</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>8006</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>8003</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>8004</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>8005</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>8006</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">
@@ -7881,52 +7872,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>9001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>9002</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>9002</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="8-KVM" sheetId="8" r:id="rId8"/>
     <sheet name="9-HDMI" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="386">
   <si>
     <t>Cable#</t>
   </si>
@@ -712,9 +712,6 @@
     <t>W/L 26</t>
   </si>
   <si>
-    <t>PCR Speakers</t>
-  </si>
-  <si>
     <t>L I/P</t>
   </si>
   <si>
@@ -1184,6 +1181,18 @@
   </si>
   <si>
     <t>XLR-JF-M, XLR-JF-F</t>
+  </si>
+  <si>
+    <t>VGA O/P</t>
+  </si>
+  <si>
+    <t>VGA I/P</t>
+  </si>
+  <si>
+    <t>PCR Vol Ctrl</t>
+  </si>
+  <si>
+    <t>PCR Speaker</t>
   </si>
 </sst>
 </file>
@@ -1320,14 +1329,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1354,12 +1365,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1899,7 +1920,7 @@
         <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>8</v>
@@ -1978,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>20</v>
@@ -2004,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>20</v>
@@ -2030,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>20</v>
@@ -2056,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>20</v>
@@ -2082,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>20</v>
@@ -2099,7 +2120,7 @@
         <v>2006</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>20</v>
@@ -2116,7 +2137,7 @@
         <v>2007</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>20</v>
@@ -2133,7 +2154,7 @@
         <v>2008</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>20</v>
@@ -2904,7 +2925,7 @@
         <v>155</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>8</v>
@@ -2954,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>33</v>
@@ -2980,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>35</v>
@@ -3006,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>36</v>
@@ -3032,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>37</v>
@@ -3058,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>38</v>
@@ -3168,7 +3189,7 @@
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>6</v>
@@ -3195,7 +3216,7 @@
         <v>155</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>8</v>
@@ -3219,7 +3240,7 @@
         <v>155</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>8</v>
@@ -3243,7 +3264,7 @@
         <v>155</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>8</v>
@@ -4001,7 +4022,7 @@
         <v>155</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H123" s="10" t="s">
         <v>8</v>
@@ -4025,7 +4046,7 @@
         <v>155</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>8</v>
@@ -4513,7 +4534,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>6</v>
@@ -4527,7 +4548,7 @@
         <v>3001</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
@@ -4551,7 +4572,7 @@
         <v>3002</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>10</v>
@@ -4564,7 +4585,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>8</v>
@@ -4575,7 +4596,7 @@
         <v>3003</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
@@ -4588,7 +4609,7 @@
         <v>155</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>8</v>
@@ -4599,7 +4620,7 @@
         <v>3004</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -4612,7 +4633,7 @@
         <v>155</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
@@ -4631,11 +4652,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4674,811 +4695,819 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>4001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>4002</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>4003</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>4003</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4004</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4004</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>4005</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4005</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>4006</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>4006</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>4007</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>4007</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>4008</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>4008</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>4009</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>4009</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>4010</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>4010</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>4011</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>4011</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>4012</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>4012</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>4013</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>4013</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>4014</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>4014</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>4015</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>4015</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>4016</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>4016</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>4017</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E18" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>4017</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>4018</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E19" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>4018</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>4019</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>4019</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>4020</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>4020</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>4021</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>4021</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>4022</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>4022</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>4023</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E24" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>4023</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>4024</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>4024</v>
-      </c>
-      <c r="B25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>4025</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>4025</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>4026</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>4027</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>4028</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>4029</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>4026</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>4030</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>4027</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="7" t="s">
+    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>4031</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D32" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>4028</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>4032</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>4029</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>4030</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>4031</v>
-      </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>4032</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="G33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5530,77 +5559,81 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
         <v>4035</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
         <v>4036</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
         <v>4037</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <v>4038</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="10" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5614,364 +5647,379 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
         <v>4041</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
         <v>4042</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
         <v>4043</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
         <v>4044</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>4045</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
         <v>4046</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
         <v>4047</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
         <v>4048</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
         <v>4049</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
         <v>4050</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
         <v>4051</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
         <v>4052</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
         <v>4053</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>4054</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>4054</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>4055</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C56" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>4055</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E56" s="11"/>
+      <c r="F56" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>4056</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C56" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F56" t="s">
-        <v>225</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H57" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>4056</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9">
+        <v>4057</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C57" t="s">
-        <v>215</v>
-      </c>
-      <c r="D57" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" t="s">
-        <v>225</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="C58" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>4057</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5983,14 +6031,14 @@
         <v>153</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>185</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>6</v>
@@ -5999,105 +6047,111 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
         <v>4059</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>4060</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>4060</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
+        <v>4061</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>4061</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D62" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>4062</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>4062</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>4063</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C63" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>4063</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>4064</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F64" t="s">
-        <v>240</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>4064</v>
-      </c>
-      <c r="B65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" t="s">
-        <v>227</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6106,50 +6160,99 @@
         <v>4065</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
         <v>4066</v>
       </c>
-      <c r="B67" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B67" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F67" t="s">
-        <v>237</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="10" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="17">
+        <v>4067</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="17">
+        <v>4068</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6162,9 +6265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6203,23 +6306,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -6228,13 +6332,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>194</v>
@@ -6243,130 +6347,135 @@
         <v>155</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>5002</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5003</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H6" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>5002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="H7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="10" t="s">
         <v>379</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6381,7 +6490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6425,23 +6534,23 @@
         <v>6000</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6449,20 +6558,20 @@
         <v>6001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>154</v>
@@ -6473,20 +6582,20 @@
         <v>6002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>154</v>
@@ -6497,20 +6606,20 @@
         <v>6003</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>154</v>
@@ -6521,45 +6630,46 @@
         <v>6004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>6005</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6568,13 +6678,13 @@
         <v>6006</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -6582,13 +6692,13 @@
         <v>6007</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -6596,13 +6706,13 @@
         <v>6008</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -6610,13 +6720,13 @@
         <v>6009</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6624,13 +6734,13 @@
         <v>6010</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6649,7 +6759,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD41"/>
     </sheetView>
   </sheetViews>
@@ -6694,23 +6804,23 @@
         <v>7101</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6718,23 +6828,23 @@
         <v>7102</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6742,23 +6852,23 @@
         <v>7103</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6766,23 +6876,23 @@
         <v>7104</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6790,23 +6900,23 @@
         <v>7105</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6814,23 +6924,23 @@
         <v>7106</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6838,23 +6948,23 @@
         <v>7107</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6862,23 +6972,23 @@
         <v>7108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6886,23 +6996,23 @@
         <v>7109</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -6910,13 +7020,13 @@
         <v>7110</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6924,13 +7034,13 @@
         <v>7111</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -6938,13 +7048,13 @@
         <v>7112</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -6952,13 +7062,13 @@
         <v>7113</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -6966,13 +7076,13 @@
         <v>7114</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -6980,16 +7090,16 @@
         <v>7115</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -6997,13 +7107,13 @@
         <v>7116</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K17" t="s">
         <v>5</v>
@@ -7014,16 +7124,16 @@
         <v>7117</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -7031,13 +7141,13 @@
         <v>7118</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -7045,13 +7155,13 @@
         <v>7119</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -7059,13 +7169,13 @@
         <v>7120</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7073,23 +7183,23 @@
         <v>7121</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7097,23 +7207,23 @@
         <v>7122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7121,23 +7231,23 @@
         <v>7123</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7145,23 +7255,23 @@
         <v>7124</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7169,23 +7279,23 @@
         <v>7201</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7193,23 +7303,23 @@
         <v>7202</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7217,23 +7327,23 @@
         <v>7203</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7241,23 +7351,23 @@
         <v>7204</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="10" t="s">
         <v>140</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7265,23 +7375,23 @@
         <v>7205</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7289,23 +7399,23 @@
         <v>7206</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7313,13 +7423,13 @@
         <v>7207</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E33" s="11"/>
     </row>
@@ -7328,23 +7438,23 @@
         <v>7301</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7352,23 +7462,23 @@
         <v>7302</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7376,23 +7486,23 @@
         <v>7303</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="10" t="s">
         <v>136</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7400,23 +7510,23 @@
         <v>7304</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7424,23 +7534,23 @@
         <v>7305</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7448,13 +7558,13 @@
         <v>7306</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E40" s="11"/>
     </row>
@@ -7463,13 +7573,13 @@
         <v>7307</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E41" s="11"/>
     </row>
@@ -7478,22 +7588,22 @@
         <v>7401</v>
       </c>
       <c r="B43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" t="s">
         <v>259</v>
-      </c>
-      <c r="C43" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" t="s">
-        <v>260</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -7501,22 +7611,22 @@
         <v>7402</v>
       </c>
       <c r="B44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" t="s">
         <v>259</v>
       </c>
-      <c r="C44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" t="s">
-        <v>260</v>
-      </c>
       <c r="F44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -7524,22 +7634,22 @@
         <v>7403</v>
       </c>
       <c r="B45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" t="s">
         <v>259</v>
-      </c>
-      <c r="C45" t="s">
-        <v>263</v>
-      </c>
-      <c r="D45" t="s">
-        <v>260</v>
       </c>
       <c r="F45" t="s">
         <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -7547,22 +7657,22 @@
         <v>7404</v>
       </c>
       <c r="B46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" t="s">
         <v>259</v>
-      </c>
-      <c r="C46" t="s">
-        <v>264</v>
-      </c>
-      <c r="D46" t="s">
-        <v>260</v>
       </c>
       <c r="F46" t="s">
         <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7570,13 +7680,13 @@
         <v>7405</v>
       </c>
       <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" t="s">
         <v>259</v>
-      </c>
-      <c r="C47" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7584,13 +7694,13 @@
         <v>7406</v>
       </c>
       <c r="B48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" t="s">
         <v>259</v>
-      </c>
-      <c r="C48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -7598,13 +7708,13 @@
         <v>7407</v>
       </c>
       <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" t="s">
         <v>259</v>
-      </c>
-      <c r="C49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7627,7 +7737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7674,20 +7784,20 @@
         <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7698,20 +7808,20 @@
         <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7722,20 +7832,20 @@
         <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7746,20 +7856,20 @@
         <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7770,20 +7880,20 @@
         <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7794,20 +7904,37 @@
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>8007</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">
@@ -7883,17 +8010,17 @@
         <v>50</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>95</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7901,23 +8028,23 @@
         <v>9002</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>95</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="391">
   <si>
     <t>Cable#</t>
   </si>
@@ -1193,6 +1193,21 @@
   </si>
   <si>
     <t>PCR Speaker</t>
+  </si>
+  <si>
+    <t>SDI-HDMI 01</t>
+  </si>
+  <si>
+    <t>SDI Loop</t>
+  </si>
+  <si>
+    <t>SDI-HDMI 02</t>
+  </si>
+  <si>
+    <t>Multi O/P 1</t>
+  </si>
+  <si>
+    <t>Multi O/P 2</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1353,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1351,9 +1366,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1368,9 +1380,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1705,195 +1716,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>1001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>1002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>1003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>1004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>1005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>1006</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>1007</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>1008</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1902,27 +1913,27 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>1010</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1944,9 +1955,9 @@
   </sheetPr>
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1985,960 +1996,998 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>2001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>2002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>2003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>2004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>2005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>2006</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>2007</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>2008</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>2009</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="H10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>2010</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="H11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>2011</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="H12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>2012</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>2013</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="H14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>2014</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="H15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>2015</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="H16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>2016</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="H17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>2017</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10" t="s">
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="H18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>2018</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="H19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>2019</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="H20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>2020</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="H21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>2021</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="H22" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>2022</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="H23" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>2023</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="H24" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>2024</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="H25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>2025</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="H26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>2026</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="H27" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>2027</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="H28" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>2028</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="H29" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>2029</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="H30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>2030</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
+      <c r="D31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+      <c r="H31" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>2031</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
+      <c r="D32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="H32" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>2032</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10" t="s">
+      <c r="D33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+      <c r="H33" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
         <v>2033</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>2034</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>2035</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
+      <c r="C36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>2034</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="G36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>2036</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10" t="s">
+      <c r="C37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>2035</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="G37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>2037</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10" t="s">
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
-        <v>2036</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="G38" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>2038</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10" t="s">
+      <c r="C39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>2037</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="G39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>2039</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+      <c r="C40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>2038</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="G40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>2040</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10" t="s">
+      <c r="C41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>2039</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="G41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>2041</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>2042</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>2040</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="C43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>2043</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
-        <v>2041</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>2042</v>
-      </c>
-      <c r="B43" s="10" t="s">
+      <c r="C44" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>2044</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16">
+        <v>2045</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
-        <v>2043</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="C46" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16">
+        <v>2046</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
-        <v>2044</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>2046</v>
+      <c r="C47" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2961,187 +3010,187 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
+    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
         <v>2051</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
+      <c r="H52" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
         <v>2052</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
+      <c r="H53" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
         <v>2053</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
+      <c r="H54" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
         <v>2054</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="11" t="s">
+      <c r="D55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
+      <c r="H55" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
         <v>2055</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
+      <c r="H56" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
         <v>2056</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
+      <c r="D57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
         <v>2057</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
         <v>2058</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="10" t="s">
+      <c r="D59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3150,200 +3199,200 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
         <v>2060</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="10" t="s">
+      <c r="D61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
+      <c r="H61" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
         <v>2061</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="10" t="s">
+      <c r="D62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+      <c r="H62" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
         <v>2062</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="10" t="s">
+      <c r="D63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
+      <c r="H63" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
         <v>2063</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="10" t="s">
+      <c r="D64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+      <c r="H64" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
         <v>2064</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="10" t="s">
+      <c r="D65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
+      <c r="H65" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8">
         <v>2065</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
+      <c r="D66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
         <v>2066</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
+      <c r="D67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8">
         <v>2067</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
+      <c r="D68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
         <v>2068</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="9">
+      <c r="D69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8">
         <v>2069</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="11"/>
+      <c r="D70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -3500,969 +3549,969 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="9">
+    <row r="102" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8">
         <v>2101</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="10" t="s">
+      <c r="D102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="9">
+      <c r="H102" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="8">
         <v>2102</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="10" t="s">
+      <c r="D103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="9">
+      <c r="H103" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="8">
         <v>2103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="11"/>
-      <c r="F104" s="10" t="s">
+      <c r="D104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H104" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9">
+      <c r="H104" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="9" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="8">
         <v>2104</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="10" t="s">
+      <c r="D105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H105" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="9">
+      <c r="H105" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="8">
         <v>2105</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="10" t="s">
+      <c r="D106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H106" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="9">
+      <c r="H106" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="8">
         <v>2106</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="10" t="s">
+      <c r="D107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H107" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="9">
+      <c r="H107" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="8">
         <v>2107</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="10" t="s">
+      <c r="D108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H108" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="9">
+      <c r="H108" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="8">
         <v>2108</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="10" t="s">
+      <c r="D109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H109" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="9">
+      <c r="H109" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="8">
         <v>2109</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="10" t="s">
+      <c r="D110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H110" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="9">
+      <c r="H110" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="8">
         <v>2110</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="10" t="s">
+      <c r="D111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="9">
+      <c r="H111" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="8">
         <v>2111</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="10" t="s">
+      <c r="D112" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="9">
+      <c r="H112" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="8">
         <v>2112</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="10" t="s">
+      <c r="D113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G113" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H113" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="9">
+      <c r="H113" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="8">
         <v>2113</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="10" t="s">
+      <c r="D114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G114" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H114" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="9">
+      <c r="H114" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="8">
         <v>2114</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="10" t="s">
+      <c r="D115" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H115" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="9">
+      <c r="H115" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="8">
         <v>2115</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="10" t="s">
+      <c r="D116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G116" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H116" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="9">
+      <c r="H116" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="8">
         <v>2116</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="10" t="s">
+      <c r="D117" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H117" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="9">
+      <c r="H117" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="8">
         <v>2117</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="10" t="s">
+      <c r="D118" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H118" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="9">
+      <c r="H118" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="8">
         <v>2118</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="10" t="s">
+      <c r="D119" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H119" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="9">
+      <c r="H119" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="8">
         <v>2119</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="10" t="s">
+      <c r="D120" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G120" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="9">
+      <c r="H120" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="8">
         <v>2120</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="10" t="s">
+      <c r="D121" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H121" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="9">
+      <c r="H121" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="8">
         <v>2121</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="10" t="s">
+      <c r="D122" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G122" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="9">
+      <c r="H122" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="8">
         <v>2122</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="10" t="s">
+      <c r="D123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="G123" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="H123" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="9">
+      <c r="H123" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="8">
         <v>2123</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D124" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="11"/>
-      <c r="F124" s="10" t="s">
+      <c r="D124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G124" s="10" t="s">
+      <c r="G124" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="H124" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="9">
+      <c r="H124" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="8">
         <v>2124</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="10" t="s">
+      <c r="D125" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G125" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H125" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="9">
+      <c r="H125" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="8">
         <v>2125</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="10" t="s">
+      <c r="D126" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G126" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H126" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="9">
+      <c r="H126" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="8">
         <v>2126</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="10" t="s">
+      <c r="D127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G127" s="10" t="s">
+      <c r="G127" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H127" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="9">
+      <c r="H127" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="8">
         <v>2127</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="10" t="s">
+      <c r="D128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="G128" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="9">
+      <c r="H128" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="8">
         <v>2128</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="10" t="s">
+      <c r="D129" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H129" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="9">
+      <c r="H129" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="8">
         <v>2129</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="10" t="s">
+      <c r="D130" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H130" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="9">
+      <c r="H130" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="8">
         <v>2130</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="11"/>
-      <c r="F131" s="10" t="s">
+      <c r="D131" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="9">
+      <c r="H131" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="8">
         <v>2131</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="10" t="s">
+      <c r="D132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G132" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H132" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="9">
+      <c r="H132" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="8">
         <v>2132</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D133" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="10" t="s">
+      <c r="D133" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G133" s="10" t="s">
+      <c r="G133" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="9">
+      <c r="H133" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="8">
         <v>2133</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="10" t="s">
+      <c r="D134" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G134" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H134" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="9">
+      <c r="H134" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="8">
         <v>2134</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="10" t="s">
+      <c r="D135" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G135" s="10" t="s">
+      <c r="G135" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H135" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="9">
+      <c r="H135" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="8">
         <v>2135</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="11"/>
-      <c r="F136" s="10" t="s">
+      <c r="D136" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="9">
+      <c r="H136" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="8">
         <v>2136</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="11"/>
-      <c r="F137" s="10" t="s">
+      <c r="D137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G137" s="10" t="s">
+      <c r="G137" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H137" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="9">
+      <c r="H137" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="8">
         <v>2137</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="11"/>
-      <c r="F138" s="10" t="s">
+      <c r="D138" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="G138" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H138" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="9">
+      <c r="H138" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="8">
         <v>2138</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="11"/>
-      <c r="F139" s="10" t="s">
+      <c r="D139" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="10" t="s">
+      <c r="G139" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H139" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="9">
+      <c r="H139" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="8">
         <v>2139</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D140" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="11"/>
-      <c r="F140" s="10" t="s">
+      <c r="D140" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G140" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H140" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="9">
+      <c r="H140" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="8">
         <v>2140</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="11"/>
-      <c r="F141" s="10" t="s">
+      <c r="D141" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G141" s="10" t="s">
+      <c r="G141" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H141" s="10" t="s">
+      <c r="H141" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4519,123 +4568,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>3000</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>3001</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>3002</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>3003</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>3004</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4652,11 +4701,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4695,945 +4747,945 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>4001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>4002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>4003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>4004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>4005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>4006</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>4007</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>4008</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>4009</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>4010</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>4011</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>4012</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>4013</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>4014</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>4015</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>4016</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>4017</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>4018</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>4019</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>4020</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>4021</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>4022</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>4023</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>4024</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>4025</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>4026</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>4027</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>4028</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>4029</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>4030</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>4031</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>4032</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>4033</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>4034</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
         <v>4035</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
         <v>4036</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
         <v>4037</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
         <v>4038</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5647,612 +5699,613 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
         <v>4041</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>4042</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
         <v>4043</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
         <v>4044</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>4045</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
         <v>4046</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
         <v>4047</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
         <v>4048</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
+    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
         <v>4049</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
         <v>4050</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
         <v>4051</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
         <v>4052</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
         <v>4053</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
         <v>4054</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
         <v>4055</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="10" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
         <v>4056</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
         <v>4057</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="10" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
         <v>4058</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="9">
+    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
         <v>4059</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
         <v>4060</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
         <v>4061</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
         <v>4062</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
         <v>4063</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="10" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
         <v>4064</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="10" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8">
         <v>4065</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" s="10"/>
+      <c r="F66" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
         <v>4066</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="10" t="s">
+      <c r="E67" s="10"/>
+      <c r="F67" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="17">
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8">
         <v>4067</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="18" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="17">
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
         <v>4068</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="18" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="9" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6263,11 +6316,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6306,170 +6362,171 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>5002</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>5003</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6486,11 +6543,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6529,147 +6589,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>6000</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>6001</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>6002</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>6003</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>6004</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>6005</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6756,11 +6816,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD41"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6799,219 +6862,219 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>7101</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>7102</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>7103</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>7104</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>7105</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>7106</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>7107</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>7108</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>7109</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7178,548 +7241,555 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>7121</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>7122</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>7123</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>7124</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>7201</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>7202</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>7203</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>7204</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
         <v>7205</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>7206</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>7207</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+      <c r="E33" s="10"/>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>7301</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
         <v>7302</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
         <v>7303</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
         <v>7304</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
         <v>7305</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
+    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
         <v>7306</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
         <v>7307</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>7401</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
         <v>7402</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
         <v>7403</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>7404</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
         <v>7405</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
         <v>7406</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
         <v>7407</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="9" t="s">
         <v>259</v>
       </c>
+      <c r="E49" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7776,164 +7846,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>8001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>8002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>8003</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>8004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>8005</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>8006</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>8007</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7999,51 +8069,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>9001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>9002</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>302</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="390">
   <si>
     <t>Cable#</t>
   </si>
@@ -1196,9 +1196,6 @@
   </si>
   <si>
     <t>SDI-HDMI 01</t>
-  </si>
-  <si>
-    <t>SDI Loop</t>
   </si>
   <si>
     <t>SDI-HDMI 02</t>
@@ -1956,8 +1953,8 @@
   <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,51 +2651,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
+    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
         <v>2033</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
+      <c r="H34" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>2034</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="B35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2946,49 +2943,13 @@
       <c r="A46" s="16">
         <v>2045</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>2046</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E47" s="17"/>
-      <c r="F47" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -4461,51 +4422,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="8">
+    <row r="140" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="16">
         <v>2139</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="8">
+      <c r="D140" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="17"/>
+      <c r="F140" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="16">
         <v>2140</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H141" s="9" t="s">
+      <c r="D141" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="17"/>
+      <c r="F141" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H141" s="7" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Cables.xlsx
+++ b/Cables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1-Ref" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="389">
   <si>
     <t>Cable#</t>
   </si>
@@ -1120,12 +1120,6 @@
     <t>Green Block</t>
   </si>
   <si>
-    <t>Cable #</t>
-  </si>
-  <si>
-    <t>Source / C#</t>
-  </si>
-  <si>
     <t>VTR 03 Display</t>
   </si>
   <si>
@@ -1205,13 +1199,16 @@
   </si>
   <si>
     <t>Multi O/P 2</t>
+  </si>
+  <si>
+    <t>VGA-M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,13 +1240,6 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1343,14 +1333,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1368,18 +1358,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1667,27 +1652,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1713,224 +1695,225 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1002</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>1003</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>1004</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>1005</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>1006</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>1007</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>1008</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>1009</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>1010</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1947,27 +1930,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A2:XFD139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1993,2437 +1973,2473 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>2001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>2006</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2007</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>2008</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="H11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="H14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="H16" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="H17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>2018</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>2019</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>2020</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>2021</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="H22" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>2022</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="H23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>2023</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>2024</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="H25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>2025</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="H26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>2026</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>2027</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="H28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>2028</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>2029</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="H30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>2030</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9" t="s">
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="H31" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>2031</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="H32" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>2032</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9" t="s">
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="H33" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>2033</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="H34" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>2034</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9" t="s">
+      <c r="C35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="H35" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>2035</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9" t="s">
+      <c r="D36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="H36" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>2036</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
+      <c r="D37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="H37" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>2037</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9" t="s">
+      <c r="D38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+      <c r="H38" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>2038</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9" t="s">
+      <c r="D39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="H39" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>2039</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9" t="s">
+      <c r="D40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="H40" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>2040</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9" t="s">
+      <c r="D41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="H41" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>2041</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9" t="s">
+      <c r="D42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="H42" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>2042</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9" t="s">
+      <c r="D43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="H43" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>2043</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9" t="s">
+      <c r="D44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+      <c r="H44" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>2044</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9" t="s">
+      <c r="D45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16">
+      <c r="H45" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>2045</v>
       </c>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>2046</v>
       </c>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>2047</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>2048</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>2049</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>2050</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>2051</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+      <c r="H52" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>2052</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+      <c r="H53" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>2053</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+      <c r="H54" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>2054</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+      <c r="H55" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>2055</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+      <c r="H56" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>2056</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+      <c r="D57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>2057</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8">
+      <c r="D58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
         <v>2058</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="9" t="s">
+      <c r="D59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="H59" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>2059</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
         <v>2060</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="9" t="s">
+      <c r="D61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+      <c r="H61" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>2061</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="9" t="s">
+      <c r="D62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+      <c r="H62" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
         <v>2062</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9" t="s">
+      <c r="D63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+      <c r="H63" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
         <v>2063</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9" t="s">
+      <c r="D64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
+      <c r="H64" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
         <v>2064</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
+      <c r="D65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
+      <c r="H65" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
         <v>2065</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+      <c r="D66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
         <v>2066</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+      <c r="D67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
         <v>2067</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
         <v>2068</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
+      <c r="D69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
         <v>2069</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="D70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
         <v>2070</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
         <v>2071</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
         <v>2072</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
         <v>2073</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
         <v>2074</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
         <v>2075</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
         <v>2076</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
         <v>2077</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
         <v>2078</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
         <v>2079</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
         <v>2081</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
         <v>2082</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
         <v>2083</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
         <v>2084</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
         <v>2085</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
         <v>2086</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
         <v>2087</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
         <v>2088</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
         <v>2089</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
         <v>2090</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
         <v>2091</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
         <v>2092</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
         <v>2093</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
         <v>2094</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
         <v>2095</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
         <v>2096</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
         <v>2097</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
         <v>2098</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
         <v>2099</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
         <v>2100</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="8">
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
         <v>2101</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="9" t="s">
+      <c r="D102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="8">
+      <c r="H102" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
         <v>2102</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="9" t="s">
+      <c r="D103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8">
+      <c r="H103" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
         <v>2103</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="9" t="s">
+      <c r="D104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="9" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8">
+      <c r="H104" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
         <v>2104</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="9" t="s">
+      <c r="D105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8">
+      <c r="H105" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
         <v>2105</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="9" t="s">
+      <c r="D106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8">
+      <c r="H106" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
         <v>2106</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="9" t="s">
+      <c r="D107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="8">
+      <c r="H107" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
         <v>2107</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="9" t="s">
+      <c r="D108" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8">
+      <c r="H108" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
         <v>2108</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="9" t="s">
+      <c r="D109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8">
+      <c r="H109" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
         <v>2109</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="9" t="s">
+      <c r="D110" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="8">
+      <c r="H110" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
         <v>2110</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="9" t="s">
+      <c r="D111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="8">
+      <c r="H111" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
         <v>2111</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="9" t="s">
+      <c r="D112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="8">
+      <c r="H112" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
         <v>2112</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="9" t="s">
+      <c r="D113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="8">
+      <c r="H113" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
         <v>2113</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="9" t="s">
+      <c r="D114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H114" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="8">
+      <c r="H114" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
         <v>2114</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="9" t="s">
+      <c r="D115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H115" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="8">
+      <c r="H115" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
         <v>2115</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="9" t="s">
+      <c r="D116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H116" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="8">
+      <c r="H116" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
         <v>2116</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="9" t="s">
+      <c r="D117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="8">
+      <c r="H117" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
         <v>2117</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="9" t="s">
+      <c r="D118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="8">
+      <c r="H118" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
         <v>2118</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="9" t="s">
+      <c r="D119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="8">
+      <c r="H119" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
         <v>2119</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="9" t="s">
+      <c r="D120" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="8">
+      <c r="H120" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
         <v>2120</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="9" t="s">
+      <c r="D121" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H121" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="8">
+      <c r="H121" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
         <v>2121</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="9" t="s">
+      <c r="D122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="8">
+      <c r="H122" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
         <v>2122</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="9" t="s">
+      <c r="D123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="8">
+      <c r="H123" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
         <v>2123</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="9" t="s">
+      <c r="D124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="F124" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H124" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="8">
+      <c r="H124" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
         <v>2124</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="9" t="s">
+      <c r="D125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="8">
+      <c r="H125" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
         <v>2125</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="9" t="s">
+      <c r="D126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H126" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="8">
+      <c r="H126" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
         <v>2126</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="9" t="s">
+      <c r="D127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="8">
+      <c r="H127" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
         <v>2127</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="9" t="s">
+      <c r="D128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="8">
+      <c r="H128" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
         <v>2128</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="9" t="s">
+      <c r="D129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H129" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="8">
+      <c r="H129" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
         <v>2129</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="9" t="s">
+      <c r="D130" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="F130" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H130" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="8">
+      <c r="H130" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
         <v>2130</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="9" t="s">
+      <c r="D131" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="8">
+      <c r="H131" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
         <v>2131</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="9" t="s">
+      <c r="D132" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H132" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="8">
+      <c r="H132" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
         <v>2132</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="9" t="s">
+      <c r="D133" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="8">
+      <c r="H133" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
         <v>2133</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="9" t="s">
+      <c r="D134" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G134" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H134" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="8">
+      <c r="H134" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
         <v>2134</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="9" t="s">
+      <c r="D135" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="8">
+      <c r="H135" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
         <v>2135</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="9" t="s">
+      <c r="D136" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="8">
+      <c r="H136" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
         <v>2136</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="9" t="s">
+      <c r="D137" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="8">
+      <c r="H137" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
         <v>2137</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="9" t="s">
+      <c r="D138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H138" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="8">
+      <c r="H138" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
         <v>2138</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="9" t="s">
+      <c r="D139" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H139" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="16">
+      <c r="H139" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
         <v>2139</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -4435,9 +4451,9 @@
       <c r="D140" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="17"/>
+      <c r="E140" s="12"/>
       <c r="F140" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>6</v>
@@ -4446,8 +4462,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="16">
+    <row r="141" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
         <v>2140</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -4459,9 +4475,9 @@
       <c r="D141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="17"/>
+      <c r="E141" s="12"/>
       <c r="F141" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>6</v>
@@ -4483,27 +4499,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4529,123 +4542,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>3000</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>3001</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3002</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3003</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3004</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4662,27 +4675,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:XFD67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4708,1559 +4718,1561 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>4001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>4002</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>4003</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4004</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>4005</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>4006</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>4007</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>4008</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>4009</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>4010</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>4011</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>4012</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>4013</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>4014</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>4015</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>4016</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>4017</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>4018</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>4019</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>4020</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>4021</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>4022</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>4023</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>4024</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>4025</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>4026</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>4027</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>4028</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>4029</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>4030</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>4031</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>4032</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>4033</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>4034</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>4035</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>4036</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>4037</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>4038</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>4039</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>4040</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>4041</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>4042</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>4043</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="12"/>
+      <c r="F44" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>4044</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>4045</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>4046</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+    <row r="48" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>4047</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>4048</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+    <row r="50" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>4049</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>4050</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>4051</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>4052</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>4053</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>4054</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>4055</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="E56" s="12"/>
+      <c r="F56" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>4056</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G57" s="9" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>4057</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="9" t="s">
+      <c r="E58" s="12"/>
+      <c r="F58" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8">
+    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
         <v>4058</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>4059</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
         <v>4060</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>4061</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
         <v>4062</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
         <v>4063</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
+    <row r="65" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
         <v>4064</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
+    <row r="66" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
         <v>4065</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9" t="s">
+      <c r="E66" s="12"/>
+      <c r="F66" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+    <row r="67" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
         <v>4066</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="12"/>
+      <c r="F67" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+    <row r="68" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
         <v>4067</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="G68" s="9" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
+    <row r="69" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
         <v>4068</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="G69" s="9" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6277,27 +6289,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6323,172 +6332,172 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>5002</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5003</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>5002</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>5003</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>378</v>
+      <c r="H8" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6504,27 +6513,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>6000</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>6001</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>253</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>360</v>
@@ -6598,7 +6604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>6002</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>253</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>360</v>
@@ -6622,7 +6628,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>6003</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>253</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>360</v>
@@ -6646,7 +6652,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>6004</v>
       </c>
@@ -6654,7 +6660,7 @@
         <v>253</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>360</v>
@@ -6670,7 +6676,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6005</v>
       </c>
@@ -6678,14 +6684,14 @@
         <v>253</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>254</v>
@@ -6694,7 +6700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6006</v>
       </c>
@@ -6702,13 +6708,13 @@
         <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6007</v>
       </c>
@@ -6716,13 +6722,13 @@
         <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6008</v>
       </c>
@@ -6730,13 +6736,13 @@
         <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6009</v>
       </c>
@@ -6744,13 +6750,13 @@
         <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6010</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>360</v>
@@ -6777,27 +6783,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6823,930 +6826,944 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>7101</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>7102</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>7103</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>7104</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>7105</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>7106</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7107</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>7108</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>7109</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>7110</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>7111</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>7112</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>7113</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>7114</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>7115</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>7116</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>7117</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>7118</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>7119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>7120</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>7121</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>7122</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>7123</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>7124</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>7201</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>7202</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>7203</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>7204</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>7205</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>7206</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>7207</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>7301</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>7302</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>7303</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>7304</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>7305</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>7306</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>7307</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>7401</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>7402</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="12"/>
+      <c r="F44" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>7403</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>7404</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>7405</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>7406</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>7407</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E49" s="10"/>
+      <c r="E49" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7761,27 +7778,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7807,168 +7821,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>8001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>8002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>8003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>8004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>8005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>8002</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>8006</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>8003</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>8007</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>8004</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>8005</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>8006</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>8007</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
     </row>
   </sheetData>
@@ -7984,27 +8005,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8030,55 +8048,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>9001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>9002</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
     </row>
   </sheetData>
